--- a/deuChatbot/research_result/version_2(3500_300).xlsx
+++ b/deuChatbot/research_result/version_2(3500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13892,6 +13892,7162 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 전반적으로 정확하지만, "산업디자인"과 "공예디자인"에 대한 구체적인 정보가 부족하여 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있으나, "산업디자인"과 "공예디자인"의 세부사항이 다소 모호하게 표현되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기시험에 대한 중요한 요소들을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 전반적으로 읽기 쉬운 편입니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으나, 각 디자인 분야에 대한 설명이 조금 더 명확하게 연결될 수 있었으면 좋았을 것입니다.
+6. Accuracy Score (1-5): 4
+   - 제공된 정보는 대체로 정확하지만, "산업디자인"과 "공예디자인"의 세부사항이 원본 텍스트와 완전히 일치하지 않아서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 높은 품질을 유지하고 있으나, 일부 세부사항의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하게 표현되었으나, 일부 문장에서 더 명확한 설명이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 일부 세부사항이 부족하여 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8115925061084669</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 주로 시각디자인, 산업디자인, 공예디자인 세 가지 분야에서 진행되며, 각 분야별로 다음과 같은 특징이 있습니다:
+1. **시각디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **산업디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환 (이름은 동일하지만 종목별 배점과 준비물이 다를 수 있습니다)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+3. **공예디자인**:
+   - **실기종목**: 기초디자인, 사고의 전환 (이름은 동일하지만 종목별 배점과 준비물이 다를 수 있습니다)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "바이러스와 자유"와 같은 주제가 있을 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+실기시험은 각 분야별로 준비물과 주제를 정해두고, 당일 추첨을 통해 주제를 결정합니다. 시간 내에 주어진 주제와 화지크기에 맞춰 작품을 완성해야 합니다.
+이러한 실기시험은 학생들의 창의력, 표현 능력, 그리고 문제 해결 능력을 평가하는 데 중점을 두고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기종목을 "시각디자인 / 산업디자인 / 공예디자인 중 선택"으로 잘못 기재하였으며, 이는 원본 텍스트의 "기초디자인"과 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 실기종목에 대한 정보가 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 실기주제와 준비물은 일치하지만, 실기종목의 불일치로 인해 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 실기종목의 잘못된 정보로 인해 완전한 관련성을 가지지 못합니다. 그러나 나머지 정보는 적절하게 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었으며, 읽기에도 무리가 없습니다. 다만, 실기종목의 잘못된 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 실기종목의 불일치로 인해 완전한 일관성을 가지지 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 실기종목에 대한 정보가 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다. 나머지 정보는 정확하지만, 핵심 정보의 오류로 인해 전체 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서의 품질이 혼합되어 있습니다. 일부 정보는 정확하고 관련성이 있지만, 실기종목의 오류로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 실기종목의 잘못된 정보로 인해 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 실기종목의 오류로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8178186535807066</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **실기종목**: 시각디자인 / 산업디자인 / 공예디자인 중 선택
+- **준비물**:
+  - 볼펜
+  - 연필
+  - 색연필
+  - 수채물감 등 표현에 필요한 도구
+- **실기주제**: 
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절
+- **시간**: 5시간</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 대회에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 대회를 포함하지 않고 있습니다. 예를 들어, "전국학교대항배드민턴선수권대회"와 같은 대회가 누락되었습니다. 또한, "전국대회 개인전 3위 이내 입상자"와 같은 정보는 원본 텍스트에 명시된 대회 목록과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 대회 목록의 일부가 누락되거나 변경되어 일관성이 떨어집니다. 예를 들어, 축구 대회에 대한 설명이 원본 텍스트와 다르게 제시되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 경기지도학과의 인정대회에 대한 정보를 제공합니다. 그러나 일부 정보가 원본 텍스트와 다르게 제시되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 나열되어 있습니다. 그러나 일부 정보가 누락되어 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 모든 사실을 정확하게 반영하지는 않습니다. 특히 대회 목록에서의 누락이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 정확하지만, 전체적인 일관성과 사실성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보가 원본과 다르게 표현되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8331539083459066</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에서는 다음과 같은 대회들이 있습니다:
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국대회 개인전 3위 이내 입상자
+2. 축구(남)의 경우:
+   - 권역별고교축구리그 우승 및 준우승 입상자 중 경기출전 70% 이상 선수
+   - K리그 U-18 챔피언십의 4위 이내 입상자 중 경기출전 70% 이상 선수
+각 종목별로 다음과 같은 대회들이 인정대회에 포함됩니다:
+- 현·전 국가대표
+- 2023년도 전국대회 개인전 3위 이내 입상자 
+- 2023년도 권역별고교축구리그 우승 및 준우승 입상자 중 경기출전 70% 이상 선수
+각 대회의 상세 내용과 점수는 위에서 나열된 대회들에 따라 다릅니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 주제B의 내용이 원본 텍스트와 다릅니다. 원본 텍스트의 주제B는 "악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음"인데, 생성된 응답에서는 "콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼"로 잘못 기재되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 주제B의 내용이 다르기 때문에, 전체적으로 일관된 정보 제공이 이루어지지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있습니다. 기초디자인 실기시험의 주제와 관련된 정보를 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 설명이 명확하게 이어집니다. 그러나 주제B의 내용이 잘못되어 전체적인 일관성에 영향을 미쳤습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 주제B의 내용이 원본 텍스트와 다르기 때문에 정확성이 낮습니다. 잘못된 정보가 포함되어 있어 정확한 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 관련성은 높지만 사실성과 일관성이 낮아 전체적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 주제B의 잘못된 정보로 인해 일부 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 주제B의 오류로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7739991015766482</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 중 각각 하나를 선택하여 연결된 주제로 시험을 치릅니다. 제공된 예시 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+수험생들은 주제A와 주제B 중에서 각각 하나를 선택하여 연결된 주제로 문제를 해결해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "일반적으로"라는 표현이 추가되어 약간의 모호성을 주고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있으며, 예시를 통해 이를 뒷받침하고 있습니다. 다만, "일반적으로"라는 표현이 약간의 일관성 문제를 야기할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심 주제인 학생부 교과 전형에서 출결 점수의 반영 여부에 대해 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 예시 부분이 다소 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있으며, 제시된 비율도 일관되게 유지되고 있습니다. 그러나 "일반적으로"라는 표현이 정확성을 약간 저하시킬 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받고 있습니다. 그러나 약간의 모호성이 존재합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 "일반적으로"라는 표현이 의미의 명확성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6839879718379557</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+예를 들어:
+- 나군 학생부교과(성인학습자(정원내)전형)의 경우, 전형요소 반영비율은 다음과 같습니다.
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 70%
+  - 면접: 30%
+  - 실기: 0%
+  - 수능: 0%
+- 나군 학생부교과(성인학습자(정원외)전형 - 정원외)의 경우, 전형요소 반영비율은 다음과 같습니다.
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 70%
+  - 면접: 30%
+  - 실기: 0%
+  - 수능: 0%
+따라서, 현재 제공된 정보에 따르면 학생부교과 전형에서 출결 점수는 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원이 9명이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 모집 인원에 대한 정보가 서로 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, "전형으로는"이라는 표현이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관성을 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성과 정확성이 크게 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로는 적절하지만, 잘못된 사실을 기반으로 하고 있어 전체적인 의미 전달에는 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장입니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.8006397438063266</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 정보의 출처도 명확하게 제시하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 잘 반영하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 대해 직접적으로 관련된 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6393934978431262</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 모집인원은 28명입니다. 이 정보는 전형일정에서 제공된 내용에 따릅니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7535106464292631</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6141111732815269</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是根据韩语原文整理的英语等第与分数对应表：
+- 等级1：139分
+- 等级2：131分
+- 等级3：123分
+- 等级4：115分
+- 等级5：107分
+- 等级6：99分
+- 等级7：91分
+- 等级8：83分
+- 等级9：75分</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못 주장하고 있습니다. 이는 원문에서 명확히 부정하고 있는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 없습니다. 원문은 예술고 학생이 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원할 수 있다고 주장합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 다르며, 예술고 학생이 지원할 수 있다고 잘못된 정보를 제공합니다. 이는 원문과 명백히 상충합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 모두 낮은 점수를 받으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6037753812406207</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中（특수목적고의 예술고）的学生可以申请作为农村学生专项（농어촌학생전형）的一部分。具体来说，在“나군 학생부교과(농어촌학생전형) - 정원외 최종등록자 추가 제출서류”部分提到，艺术高中（특수목적고의 예술고）属于可以申请的学校类型之一。
+因此，艺术高中的学生是可以作为农村学生专项进行申请的。</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 제자리 멀리뛰기 4등급 기록이 268~271cm로 잘못 기재되어 있습니다. 원본 텍스트에서는 218~221cm로 명시되어 있어, 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공하고 있습니다. 기록에 대한 정보가 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 기록의 부정확성으로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 기록에 대한 정보가 잘못되어 있어 정확성이 낮습니다. 배점은 정확하지만, 기록의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 기록의 오류로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 기록의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.7549451366614502</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 268～271cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7267659065393788</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다. 이는 나군 실기/실적(경기실적우수자전형) 전형요소 반영비율에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.9452108711265242</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5215745689560376</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보가 없다고 언급하고 있으며, 이는 사실입니다. 그러나 다른 전형에 대한 정보가 포함되어 있어 다소 혼란을 줄 수 있습니다. 수능 최저기준이 없다는 점은 정확하지만, 다른 전형에 대한 정보는 원문과 직접적인 관련이 없습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일부분 일치하지만, 다른 전형에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문에서 수능 최저기준이 없다고 명시했음에도 불구하고, 다른 전형에 대한 설명이 추가되어 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 대해 관련된 정보를 제공하고 있습니다. 그러나 다른 전형에 대한 정보는 질문의 핵심과는 다소 거리가 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 불필요한 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 이로 인해 논리적인 흐름이 약간 깨질 수 있습니다. 원문에서 요구하는 정보에 대한 명확한 답변이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 수능 최저기준이 없다는 점에서 정확하지만, 다른 전형에 대한 정보는 원문과의 관련성이 떨어져 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 관련성은 어느 정도 충족되지만, 일관성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답은 원문의 의미를 어느 정도 전달하고 있지만, 다른 전형에 대한 정보가 포함되어 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 추가된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4479659027813939</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보는 없습니다. 하지만, 다른 전형별로 수능 최저기준이 제시되어 있지 않은 것을 볼 수 있습니다.
+특히, 수능 위주의 일반학생전형에서 다음과 같은 내용을 확인할 수 있습니다:
+- 가군 수능(일반학생전형)의 경우, 전 모집단위(레저스포츠학과, 태권도학과 제외)에 대한 수능 최저기준은 명시되어 있지 않습니다.
+- 나군 수능(일반학생전형)의 경우, 한의예과(수학(미적분/기하), 수학(확률과 통계)) 외의 전 모집단위에 대한 수능 최저기준도 명시되어 있지 않습니다.
+따라서 동의대학교 응용화학과의 2024학년도 수능 최저기준을 확인하기 위해서는 대학官方网站或文档中提到的具体要求。
+如果上述信息不足以确定具体的专业最低录取标准，建议直接访问东义大学的官方网站或者联系招生办公室获取最准确的信息。通常这些详细信息会在学校的招生简章、官网公告栏或是通过电话咨询获得。</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 '부동산자산경영학부'라는 학과를 추가로 언급하고 있으며, 이는 원본 텍스트에 포함되어 있지 않은 정보입니다. 또한, '미래융합대학'이라는 명칭도 원본 텍스트에 나타나지 않으므로, 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. '부동산자산경영학부'와 '미래융합대학'이라는 명칭은 원본 텍스트에 없으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 추가된 학과가 원본 텍스트와 일치하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 학과에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 학과를 언급하고 있어 정확성 점수가 낮습니다. 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 불일치로 인해 의미적으로 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.6847317611574657</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과는 다음과 같습니다:
+1. 미래융합대학 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 부동산자산경영학부 (부동산투자학, 부동산개발경영학)
+이러한 학과들은 2024년부터 신설되어 입학생을 모집하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하고 있으며, 서류와 면접의 비율이 정확하게 언급되었습니다. 그러나 "이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 전형요소 반영비율을 설명하고 있습니다. 그러나 추가된 정보가 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전형요소 반영비율에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전형요소 반영비율에 대한 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 보이지만, 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8571687132080841</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위와 관련된 정보를 포함하고 있지만, 원본 텍스트에 명시된 모집단위와 다르게 추가적인 과목과 비율을 언급하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 원본 텍스트에서 언급되지 않은 과목과 비율이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 벗어난 정보가 포함되어 있습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 원본 텍스트와 다르게 해석될 수 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 과목과 비율을 나열하고 있지만, 원본 텍스트의 구조와 흐름을 따르지 않아 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 추가적인 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 문제가 있습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4568785436994481</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>东义大学在一些特定的学科中提供数学(微积分或几何)考试的成绩加成点。具体来说：
+- 对于医学院校和生活保健学院、工科学院以及ICT融合工科学院的招生单位，适用的科目是：
+  - 国语（25%）
+  - 数学（25%，对于参加微积分或几何考试的学生，数学标准分数额外增加10%） 
+  - 英语（25%）
+  - 探索（社会探索、科学探索或职业探索-两个科目合计）（25%）
+- 对于中医预科的数学(微积分/几何)参加者：
+  - 国语（25%）
+  - 数学 (微积分 或 几何) （25%）
+  - 英语（25%）
+  - 探索（社会探索或科学探索-两个科目合计）（25%）
+- 对于中医预科的数学(概率与统计)参加者：
+  - 国语（25%）
+  - 数学 (概率与统计) （25%）
+  - 英语（25%）
+  - 探索（社会探索或科学探索-两个科目合计）（25%）
+- 对于艺术设计体育学院的招生单位(不包括时装设计专业)，适用的科目是：
+  - 国语、数学、英语和探索中的三个最高分数部分
+所以总结来说，只有特定学科的专业在参加微积分或几何考试时可以得到额外10%的加分。</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적이 100% 반영된다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 각 영역의 비율을 제시하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원문에서 언급된 100% 반영이라는 핵심 정보를 간과하고 있습니다. 그럼에도 불구하고 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 원문과의 불일치로 인해 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 일관되지만, 원문과의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다. 각 영역의 비율을 설명하는 부분은 명확하지만, 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 성적이 100% 반영된다는 사실을 잘못 해석하여 각 영역별 비율을 제시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 부족하여 전반적인 품질이 낮습니다. 관련성은 높지만, 정확성과 일관성이 결여되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영 방법에 대한 설명을 제공하지만, 원문과의 의미적 일치가 부족합니다. 원문의 핵심 메시지를 잘못 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 그럼에도 불구하고 내용 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7239784747911541</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%
+따라서, 수능 성적은 다음과 같이 계산됩니다:
+- 국어 표준점수 (25%)
+- 수학 표준점수 (25%)
+- 영어 등급 점수 (25%)
+- 탐구 표준점수 (25%)
+이러한 점수들을 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 날짜와 관련된 정보가 정확하며, 실기고사가 레저스포츠학과와 태권도학과에서 실시된다는 추가 정보도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 학과 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용인 실기고사 날짜를 직접적으로 다루고 있으며, 관련된 추가 정보도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.7638255934615988</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과가 제외된다고 언급하고 있지만, 디자인조형학과와 체육학과, 경기지도학과가 제외된다는 사실을 잘못 전달하고 있습니다. 또한, 패션디자인학과는 언급된 모집단위에 포함되지 않으므로 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 패션디자인학과가 제외된 모집단위로 언급된 것은 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 전체적으로는 다소 부적절합니다. 그러나 제외된 모집단위에 대한 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 구조적으로 일관성이 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히, 제외된 모집단위에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 품질이 낮습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 신뢰할 수 없는 정보가 포함되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과 일치하지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6868314659347214</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 다음과 같은 모집단위가 제외됩니다:
+- 한의예과 수학(미적분/기하) 응시자 모집단위
+- 예술디자인체육대학 패션디자인학과 모집단위
+이 외에는 동의대학교 나군 수능(일반학생전형)에서 제외되는 모집단위는 없습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저기준이 적용되지 않는다는 사실을 명확히 반영하지 않고 있으며, 일반적인 정보와 조언을 제공하고 있지만, 원문과 상충하는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 최저기준이 적용되지 않는다는 사실을 부정하는 내용이 포함되어 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 주제에서 벗어난 일반적인 조언을 포함하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련된 정보가 아닌 일반적인 조언을 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 정보의 흐름이 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.730264313953383</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에 대한 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만 일반적으로 대학별로 다군 전형에서 수능 최저기준을 설정하는 경우가 많습니다. 
+수능 최저기준이 적용되는지 확인하려면:
+1. 동의대학교 입시 홈페이지를 방문하여 2024학년도 정시모집 안내를 확인합니다.
+2. 다군 전형에 대한 상세한 기준과 조건을 찾아보세요.
+3. 수능 최저기준이 명시되어 있는지 확인합니다.
+만약 자료가 부족하다면, 동의대학교 입학처로 직접 문의하거나, 대입 컨설팅 서비스를 이용하는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "사회복지학과"가 학부에서 학과로 분리되었다고 주장하지만, 원본 텍스트에는 이 정보가 포함되어 있지 않으며, 원본 텍스트에서 언급된 학과들은 전혀 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트에 나열된 학과들과는 전혀 관련이 없기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 원본 텍스트에서 다루고 있는 학과 분리 정보와는 전혀 상관이 없습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.4934402707679469</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "사회복지학과"가 학부에서 학과로 분리되었습니다. 이는 전형별 모집단위별 모집인원에서 확인할 수 있는 정보입니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일을 정확하게 반영하고 있으며, 날짜와 시간도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8532962182793444</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 2024학년도 전형일정에서 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전형 요소 변화에 대한 구체적인 내용을 잘못 전달하고 있습니다. 예를 들어, '평생학습자전형'과 '재직자전형'에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 배점 변경에 대한 내용도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서 제시된 전형 요소와 배점 변화가 다르게 설명되고 있어, 서로 모순되는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전형 요소 변화에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 거리가 있습니다. 원본의 구체적인 전형 요소 변화에 대한 설명이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 각 전형에 대한 설명이 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 전형의 배점 변화에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 전형 요소 변화에 대한 설명이 원본과 일치하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.7409271055784734</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 1등급 120점
+     - 학업역량: 1등급 280점 → 1등급 240점
+     - 전공적합성: 1등급 280점 → 1등급 240점
+   - 면접평가 영역 및 배점이 변경되었습니다.
+     - 학업역량: 1등급 180점 → 1등급 165점
+     - 전공적합성: 1등급 120점 → 1등급 90점
+2. **조기취업형 계약학과전형 (정원외)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점 → 1등급 108점
+     - 학업역량: 1등급 240점 → 1등급 216점
+     - 전공적합성: 1등급 240점 → 1등급 216점
+3. **실기/실적(경기실적우수자전형)**:
+   - 서류심사 기준 및 점수표가 일부 변경되었습니다.
+이러한 변화는 전반적으로 평생학습자, 성인학습자, 재직자 등 비전통적인 학생들의 평가 기준을 조정하고 있으며, 특히 면접평가에서의 배점을 줄여 전형의 공정성을 높이려는 노력으로 해석할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 그러나 "기타 모집단위는 수능 비중이 100%이며, 실기는 반영되지 않습니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기 비중이 70%라는 정보를 일관되게 제공하지만, "기타 모집단위"에 대한 언급이 원본 텍스트와 일치하지 않아서 일관성이 떨어집니다. 원본 텍스트는 특정 학과에 대한 정보만 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 전달하고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "기타 모집단위"에 대한 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중이 70%라는 정보는 정확하지만, 추가된 정보가 원본 텍스트에 포함되어 있지 않기 때문에 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.754445491817576</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 차지하는 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 실기 비중이 70%입니다.
+- 기타 모집단위는 수능 비중이 100%이며, 실기는 반영되지 않습니다.
+따라서, 일반적으로 가군 실기/실적 전형에서는 실기가 차지하는 비중은 **70%**입니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 세부 전공에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8432007585301032</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이 학부는 미래융합대학에 속해 있으며, 다양한 산업 분야와 융합된 새로운 직무 역량을 기르기 위해 설립되었습니다. 세부 전공별로 각각의 특화된 교육 프로그램과 취업 준비를 위한 실질적인 경험 제공이 이루어질 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과만 언급되었으나, 생성된 응답에서는 디자인조형학과가 포함되어 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 일부 관련 정보를 포함하고 있지만, 주제와 관련이 없는 디자인조형학과에 대한 세부사항이 포함되어 있어 전체적으로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나쁘지 않지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 품질 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 부분이 있지만, 주제와 관련 없는 정보가 포함되어 있어 전체적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6733002193112644</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과들은 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 실기종목: 기초디자인, 사고의 전환
+   - 화지 크기: 켄트지 3절
+   - 시간: 5시간
+2. 체육학과 
+   - 실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+   - 각 종목별 배점 비율은 240점(24%), 243점(23%), 230점(23%)입니다.
+이 외에 다른 학과에서는 실기고사가 진행되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 학과 목록을 포함하고 있지만, 각 학과에 대한 추가 정보(가군, 나군 등)는 원본 텍스트에 명시되어 있지 않으므로 일부 사실이 추가되었거나 변형되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 기반으로 하고 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 예를 들어, "신설"이라는 표현은 원본에 없던 내용입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기/실적 위주 전형에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 일관되게 이어집니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 원본 텍스트의 정보는 정확하지만, 추가된 세부사항(가군, 나군 등)은 원본에 명시되어 있지 않아 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 사실성과 일관성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.7647552115884131</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군)
+2. 태권도학과 (가군)
+3. 디자인조형학과 (나군, 시각디자인, 산업디자인, 공예디자인 포함)
+4. 체육학과 (나군, 교직 포함)
+5. 경기지도학과 (다군, 신설)
+이러한 학과들은 전형 유형이 실기/실적 위주이며, 해당 학과를 지원하려면 실기 평가와 관련된 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 라이프융합학부의 전공을 정확하게 나열하고 있으며, 신설된 학부라는 사실도 반영하고 있습니다. 그러나 "2024년도에 신설하였습니다"라는 표현은 다소 모호하게 느껴질 수 있습니다. 전공이 신설된 시점에 대한 명확한 정보가 없으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 전공을 나열하고 있으며, 전공 선택에 대한 언급도 일관성을 유지하고 있습니다. 다만, "미래융합대학"이라는 명칭이 원본 텍스트에 없으므로, 이 부분에서 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전공에 대한 정보가 직접적으로 관련되어 있습니다. 따라서 매우 높은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "신설하였습니다"라는 표현이 다소 어색하게 느껴질 수 있어 약간의 점수를 감점하였습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 선택에 대한 설명이 자연스럽게 이어집니다. 그러나 "2024년도에"라는 부분이 문맥상 다소 어색하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, 신설 시점에 대한 정보가 명확하지 않아 약간의 부정확성이 있습니다. 
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등에서 좋은 점수를 받았습니다. 그러나 몇 가지 세부 사항에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 잘 전달하고 있으나, "미래융합대학"이라는 표현이 원본에 없으므로 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있어 약간의 점수를 감점하였습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.7901659280261845</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 전공을 신설하였습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 이 세 가지 전공 중 하나를 선택하여 공부할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 마이스터고에 대한 언급이 포함되어 있어 다소 혼란을 줄 수 있습니다. 
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 일반학생전형에 대한 정보는 일관되지만, 마이스터고와 관련된 내용이 추가되어 있어 원문과의 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 관련된 추가 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 유창하게 작성되었으나, 중간에 다른 언어(중국어)가 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으나, 다른 언어의 삽입으로 인해 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 마이스터고에 대한 언급이 혼란을 줄 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되었으나, 일부 일관성과 유창성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 대체로 의미가 적절하지만, 다른 언어의 삽입으로 인해 의미 전달이 약간 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 중간에 다른 언어가 포함되어 있어 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6318691656677338</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교로는 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 등이 해당되며, 이들 특수목적고등학교의 학생들은 동의대학교의 가군(수능 위주), 나군(실기/실적 위주) 및 다군(수능 위주) 전형 모두 지원이 가능합니다.
+따라서, 특수목적고등학교 재학 중인你是韩国人吗？根据您提供的信息，您似乎是关于韩国东国大学（Dongguk University）的招生政策询问。如果您是想确认特定条件下的申请资格，请告诉我具体是哪个专业或哪种类型的入学考试，我可以帮助您进一步查找相关信息。如果有任何不清楚的地方或者需要更多信息，请直接提问吧！</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 조선해양공학과가 가장 많이 모집하는 학과로 잘못 언급되고 있습니다. 또한, 모집 인원에 대한 정보도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서 언급된 학과와 모집 인원에 대한 정보가 잘못 해석되어 서로 충돌하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 특히, 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 부분이 많습니다. 주제와 관련된 정보는 포함되어 있지만, 잘못된 해석으로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성이 떨어져 이해하는 데 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7089797557703222</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**의 학과들이 많은 인원을 모집하고 있습니다:
+   - 기계공학과: 17명
+   - 로봇자동화공학과: 0명 (단위에서 제외되었음)
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+2. **의료·보건·생활대학**에서도 많은 인원을 모집하고 있습니다:
+   - 치위생학과: 16명
+   - 방사선학과: 2명
+3. **인문사회과학대학**에서도 꽤 많은 인원을 모집하고 있습니다:
+   - 영어영문학과: 28명
+이 중에서 가장 많이 모집하는 학과는 **조선해양공학과**로, 정원 내 모집 인원이 36명입니다. 이외에도 신소재공학과와 고분자나노공학과도 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **조선해양공학과**로 추정됩니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 잘못 해석하고 있습니다. 원본 텍스트는 마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다고 명시하고 있지만, 생성된 응답은 특수교육 고등학교 학생이 지원할 수 있다고 잘못 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학교 출신자가 지원할 수 없다고 명시하고 있으나, 생성된 응답은 그와 반대되는 내용을 담고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 지원 자격에 대한 명확한 정보를 제공하고 있지만, 생성된 응답은 잘못된 정보를 바탕으로 한 내용으로, 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 잘못되어 있어 전체적인 흐름이 매끄럽지 않습니다. 그러나 문장 구조는 비교적 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 내용을 잘못 해석하여 일관성이 떨어지며, 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4772196698605238</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据提供的信息，你符合东义大学农林农村学生选拔的条件。具体来说：
+1. **支持资格**：
+   - 特殊教育高中（包括科学高中、国际高中和外语高中）的学生是可以申请的。
+   - 艺术高中和体育高中的学生也是可以申请的。
+   - 技工高中学生也可以申请。
+   - 普通高中、自治高中以及各种其他类型的学校的学生也都可以申请。
+2. **申请资格**：
+   - 你需要满足6年制或12年制课程的要求，即在农村（镇/乡）地区的中学和高中完成整个教育过程，并且你本人及父母（如果还活着的话）在这期间居住在农村地区。
+3. **提交的文件**：
+   - 如果你是6年制课程的学生：你需要提供以下文件
+     1. 你的家庭关系证明书1份
+     2. 你自己、父亲和母亲的居民登记副本各1份（总共3份）
+     3. 初中学生手册1份
+     4. 高中学生手册1份。如果父母之一去世，需要提供死亡证明；如果父母离婚，则需要提供监护方的婚姻关系证明以及你的出生证明。
+   - 如果你是12年制课程的学生：你需要提供以下文件
+     1. 你自己的居民登记副本1份
+     2. 小学学生手册1份
+     3. 初中学生手册1份
+     4. 高中学生手册1份
+因此，作为特殊教育高中学生，你可以申请东义大学的农林农村学生选拔。你需要准备相应的文件并按照要求提交。建议你访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）获取更详细的信息和最新的申请指南。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있어 일관성이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 명시한 바와는 전혀 다른 내용을 다루고 있습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적인 점이 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.5784338667523312</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종등록자의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+따라서, 주어진 정보 중에서 소프트웨어공학부 합격자의 평균 성적을 나타내는 것은 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균인 434.70이라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 잘못된 정보를 제공합니다. 
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되며, 원문에서 제공된 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문에서 언급된 내용과는 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관성이 있지만, 원문과의 관계에서 비일관적입니다. 따라서 원문과의 연결성에서 점수가 낮아집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4946151036807143</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 **330.11**입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정확한 정보를 제공하지 않고 있으며, 경희대학교의 합격자 발표 일정에 대한 구체적인 내용이 잘못된 정보로 대체되었습니다. 원본 텍스트의 사실과 일치하지 않으므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트의 발표 일정과 관련된 정보가 전혀 반영되지 않았고, 일반적인 정보로 대체되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 경희대학교의 합격자 발표 일정에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 일정과는 관련이 없습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 불필요하게 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 그러나 일부 일반적인 정보는 포함되어 있어 낮은 점수를 부여합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4034547306096544</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2024학년도 경희대학교 정시모집 합격자 발표 일정에 대한 정보는 제공되지 않았습니다. 일반적으로 대학의 정시모집 합격자는 해당 대학이 공식 홈페이지나 입학처를 통해 발표하며, 이 시기는 보통 12월 중순부터 말까지 이루어집니다.
+경희대학교의 경우, 정확한 합격자 발표 일정은 다음과 같습니다:
+- **합격자 명단 발표**: 보통 12월 중순에서 말 사이에 진행됩니다.
+- **온라인 확인**: 합격자 명단은 대학 홈페이지를 통해 온라인으로 확인할 수 있습니다.
+具体的来说，首尔景熙大学的最终录取结果通常会在12月中旬到下旬之间公布。具体日期可能会有所不同，请关注学校官网或招生办公室的通知以获取准确信息。
+如果您需要最新的确切日期，建议直接访问景熙大学官方网站或者联系学校的招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트의 사실을 왜곡하고 있습니다. 원본 텍스트는 명확한 날짜를 제시하고 있지만, 생성된 응답은 그 정보를 부정확하게 해석하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접 일정에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접 일정에 대한 질문에 대한 적절한 답변을 제공하지 않습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 한국어로 작성된 원본 텍스트와는 전혀 관련이 없는 내용이므로 전체적인 흐름이 좋지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있지 않으며, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 불명확하여 전체적으로 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3272930164153903</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>題目中的信息似乎不完整，沒有提供具體的面試時間。一般來說，大學會在特定日期安排面試，具體日期通常會在招生簡章或官網上公布。
+如果您能提供更多關於哪個學科或專業的信息，我可以幫助您查找更詳細的日程安排。請告知具體情況，謝謝！</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "동의대 한의예과의 최저학력 기준이 없습니다."라는 원문과 상충하는 내용을 포함하고 있습니다. 응답은 일반적인 한의예과의 지원 자격에 대한 정보를 제공하고 있지만, 이는 원문에서 명시된 사실과는 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문은 최저학력 기준이 없다고 명확히 언급하고 있지만, 생성된 응답은 여러 조건을 제시하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과의 지원 자격에 대한 정보를 제공하지만, 원문에서 요구하는 최저학력 기준에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다. 원문은 최저학력 기준이 없다고 명시하고 있지만, 응답은 여러 조건을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실성, 정확성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 정보가 포함되어 있어 점수가 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 많습니다. 다만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4950278527665743</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보는 제공되지 않았습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 수능 응시 요건:
+   - 수학(미적분 또는 기하) 과목 응시 필요
+   - 일부 대학에서는 수학(확률과 통계)도 인정할 수 있음
+2. 학력 요구:
+   - 고등학교 졸업 자격이 필요함
+3. 추가 요건:
+   - 특정 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 과목 성적 기준 등)
+4. 경쟁률과 합격 점수:
+   - 각 대학마다 다르므로, 정확한 최저학력기준은 해당 대학의 공식 입시 안내를 확인해야 합니다
+5. 추가 지원 자격:
+   - 일부 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있음 (예: 특정 활동 경력 등)
+따라서 정확한 한의예과 최저학력기준은 각 대학의 공식 입시 안내를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 특정 전형에 대한 추가 정보가 포함되어 있어, 원문과는 약간의 차이가 있습니다. 전형별로 수능 최저학력 기준이 없다고 명시했지만, 다른 전형에서는 기준이 있을 수 있다는 점에서 약간의 모호함이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 전형별로 수능 최저학력 기준이 없다는 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원문은 단순히 "수능 최저학력 기준이 없다"는 사실만을 언급하고 있기 때문에, 추가적인 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 잘 다루고 있으며, 수능 최저학력 기준에 대한 정보를 제공하고 있습니다. 원문에서 언급된 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 전형별로 수능 최저학력 기준이 없다는 점에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있지만, 다른 전형에서 기준이 있을 수 있다는 점에서 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다. 그러나 추가적인 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5836178006073908</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형별로 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위(레저스포츠학과, 태권도학과 제외)
+2. 나군 수능(일반학생전형) - 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)
+3. 다군 수능(일반학생전형)
+이들 전형 모두 "수능최저기준 없음"이라고 표시되어 있습니다.
+그러나 다른 전형에서는 수능 최저학력 기준이 있을 수 있으므로, 전체적인 입학 전형을 검토하시거나 대학의 공식 안내를 확인하시는 것이 좋겠습니다. 특히 학생부교과 위주 또는 실기/실적 위주의 전형에서는 수능 최저학력 기준이 설정될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 정보를 정확하게 반영하고 있습니다. 그러나 "인터넷 발표"와 "개별 전화 통보"에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일정과 일치하지만, 추가적인 정보(인터넷 발표 및 개별 전화 통보)가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 이러한 세부사항이 없기 때문에 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 저하되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.7916113925120495</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>충원 합격자 발표 일정은 다음과 같습니다:
+- **2024. 02. 14.(수) 09:00**: 충원 합격자 1차 (인터넷) 발표
+- **2024. 02. 15.(목) 09:00**: 충원 합격자 2차 (인터넷) 발표
+이후에는 개별 전화 통보를 통해 추가적으로 발표될 예정입니다:
+- **2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지**: 충원 합격자 3차 이후 (개별 전화 통보) 발표
+각 차례의 발표는 홈페이지에서 개별 조회 가능하며, 고지서 교부와 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자의 발표일자가 명시되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 발표 일정이 나와 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 오히려 모순된 정보를 제공합니다. 원본 텍스트에 있는 발표 일정과는 전혀 일치하지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 정보에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.4101694700273201</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가합격자의 발표일자는 명시되어 있지 않습니다. 추가합격자 발표 일정과 관련된 자세한 정보는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 동의대학교 입학처에 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 추가 모집 여부에 대한 명확한 정보를 제공하지 않으며, 원본 텍스트의 내용을 직접적으로 반영하지 않고 있습니다. 그러나 원본 텍스트의 내용을 간접적으로 언급하고 있어 일부 사실성을 유지하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있으며, 추가 모집 여부에 대한 불확실성을 강조하고 있습니다. 원본 텍스트는 추가 모집이 이루어질 것이라는 내용을 포함하고 있지만, 생성된 응답은 이를 부정확하게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 직접적인 답변을 제공하지 않고 있습니다. 추가 모집 여부에 대한 질문에 대한 답변으로는 적절하지만, 원본 텍스트의 구체적인 내용을 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 일관된 구조를 가지고 있으며, 정보가 잘 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하지 않으며, 추가 모집 여부에 대한 불확실성을 강조하고 있습니다. 원본 텍스트는 추가 모집이 이루어질 것이라는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있으며, 일부는 긍정적이지만 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하지 않으며, 추가 모집 여부에 대한 불확실성을 강조하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4237823695342159</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 추가 모집 여부를 확실히 알 수 없습니다. 추가 모집이 있는지 확인하려면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하여 최신 공고나 안내사항을 확인하시기 바랍니다. 해당 사이트에서 가장 정확하고 최신 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 일부 잘못되었거나 왜곡된 내용을 포함하고 있습니다. 예를 들어, 모집인원이 '34명'과 '30명'으로 잘못 기재되어 있으며, 모집 단위에 대한 정보도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 모집 단위와 인원에 대한 정보가 상충합니다. 이러한 불일치는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 세부 사항과는 다소 차이가 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 여러 사실에서 부정확하며, 특히 모집 단위와 인원에 대한 정보가 잘못되었습니다. 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 적절한 부분이 있으나, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 정보의 정확성과 일관성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7058780526061177</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 주로 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 이 전형에서는 고등학교 졸업 자격을 갖춘 성인 학습자가 지원할 수 있으며, 다양한 모집단위와 모집인원이 있습니다.
+주요 내용은 다음과 같습니다:
+1. **모집 단과대학 및 계열**:
+   - 미래융합대학 (인문사회)
+   - 상경대학 (인문사회)
+2. **모집 단위 및 인원**:
+   - 라이프융합학부: 34명
+   - 부동산자산경영학부: 30명
+3. **제출 서류**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모 초본 (각 1부)
+4. **평가 요소 및 비율**:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+5. **동점자 처리 기준**:
+   - 1위: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자
+   - 2위: 영어교과 전 과목 등급 평균 상위자
+   - 3위: 국어교과 전 과목 등급 평균 상위자
+6. **면접 평가**:
+   - 학업역량 (문제해결능력)
+   - 전공적합성 (진로정보 탐색능력)
+7. **서류평가 영역 및 배점**:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 학생들은 필요한 서류를 준비하고, 동점자 처리 기준과 면접 질문 등을 미리 파악하여 입학사정관의 평가를 받기 위한 준비를 하는 것이 중요합니다. 자세한 내용은 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌 재직기간과 관련된 조건을 설명하고 있습니다. 원본 텍스트의 핵심 정보인 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"와는 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 상반된 내용을 담고 있습니다. 원본의 지원자격과는 다른 조건을 제시하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 평생학습자전형의 지원자격에 대한 질문에 대해 전혀 다른 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 지원자격에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장 구조와 표현이 명확하여 이해하기는 쉽지만, 내용이 부적절하여 전체적인 이해도에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.6322245156487606</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+- **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+- **재직기간 산정**: 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정됩니다. 
+- **다중 재직**: 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정되지만, 중복되는 기간은 이중으로 합산하지 않습니다.
+- **군 의무복무**: 군 의무복무 경력도 재직기간으로 인정됩니다.
+또한, 지원 자격 증빙서류로는 다음과 같은 것들이 필요합니다:
+1. 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)의 경우, 4대 보험 가입증명서가 필요합니다.
+2. 국가·지방자치단체 및 공공단체 소속 직원인 경우, 해당 증빙서류가 필요합니다.
+3. 상시근로자 5인(사업주 포함) 이상 사업체에서 근무하는 경우, 건강보험자격득실확인서 또는 기타 관련 증빙서류가 필요합니다.
+이 외에도 특정 산업 분야에서는 공적증명서를 통해 인정받을 수도 있습니다. 자세한 내용은 입학 안내 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하고 있으며, 원본 텍스트의 핵심 사실을 잘 반영하고 있습니다. 그러나 특정 날짜에 대한 정보가 추가되어 있어 원본 텍스트와 완전히 일치하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 날짜와 학과 정보로 인해 일관성이 떨어질 수 있습니다. 원본 텍스트의 정보와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보로 인해 약간의 의미 변형이 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.678025196991127</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 다음과 같이 결정됩니다:
+- **2024. 01. 16.(화)**: 레저스포츠학과와 태권도학과의 실기고사는 대기실 및 입실시간 안내를 위해 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+- **2024. 01. 17.(수)**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)와 체육학과의 실기고사는 대기실 및 입실시간 안내를 위해 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+이 정보가 도움이 되길 바랍니다. 더 궁금한 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 정확하게 포함하고 있으며, 추가적인 일정과 장소에 대한 정보도 제공하고 있습니다. 그러나, 실기고사 일정이 명시된 날짜와 관련된 정보가 없으므로 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 대기실 및 입실시간에 대한 정보는 일치하지만, 실기고사 일정에 대한 정보는 원본 텍스트와는 관련이 없습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 실기고사에 대한 구체적인 세부사항을 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대기실 및 입실시간에 대한 정보는 정확하지만, 실기고사 일정에 대한 정보는 원본 텍스트와의 관련성이 부족하여 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 실기고사에 대한 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본과의 관련성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.515132658742018</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2024년 체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **일정**:
+   - **제자리 멀리뛰기**: 2024년 1월 17일 (수)
+   - **메디신볼 던지기**: 2024년 1월 17일 (수)
+   - **Z-런**: 2024년 1월 17일 (수)
+2. **장소**:
+   - 체육학과의 실기고사는 각각 제자리 멀리뛰기, 메디신볼 던지기, Z-런 종목별로 대학 내에서 진행됩니다.
+3. **준비사항**:
+   - **대기실 및 입실 시간 안내**: 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+   - **입실 시간**: 각 종목별로 정해진 시간에 맞춰 대기실에 입장해야 합니다.
+따라서, 체육학과의 실기고사는 해당 학교 내에서 진행되며, 일정 날짜와 시간에 따라 각각의 종목을 준비하고 참가하면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시 충원합격자 발표 후 개별 전화 통보를 받을 수 있다고 언급하고 있으나, 원문에서는 전화로 개별 연락을 하지 않는다고 명확히 설명하고 있습니다. 이로 인해 사실과 상충하는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있어 일관성이 부족합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 일반적으로 전화 통보를 받을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있으며, 추가적인 조언을 포함하고 있습니다. 그러나 원문에서 명시된 사실과는 다소 다르게 해석되고 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 원문과의 관계가 명확히 드러나지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서 전화 통보가 이루어지지 않는다고 명시하고 있지만, 생성된 응답에서는 이를 반대로 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 상충하는 부분이 있어 적절성이 떨어집니다. 원문에서의 명확한 사실과는 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.540672613638849</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 동일 학교와 같은 상황을 고려할 때, 일반적으로 수시 충원합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 정확한 정보는 해당 대학의 공식 웹사이트나 입학처에서 확인하는 것이 가장 좋습니다. 
+https://ipsi.deu.ac.kr/main.do 링크를 참고하여 최신 정보를 확인하시거나, 직접 동의대학교 입학처에 문의하시는 것을 추천드립니다.
+만약 웹사이트에서 명시적으로 전화 통보가 언급되어 있지 않다면, 홈페이지나 공지사항을 주기적으로 확인하는 것이 좋습니다. 또한 합격자 발표 후에는 대학 입학처로 직접 연락하여 자세한 안내를 받는 것도 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시모집 결과에 대한 구체적인 정보를 제공하지 않으며, 예상치와 같은 비공식적인 데이터를 포함하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트에서 제공된 정보와 일치하지 않으며, 수시모집 결과에 대한 구체적인 수치를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 수시모집 결과에 대한 일반적인 정보를 제공하고 있으나, 원본 텍스트의 요청에 대한 직접적인 답변은 아닙니다. 그러나 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(예: 예상 모집 인원, 경쟁률 등)를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 설명: 여러 차원에서 평균적인 성과를 보이나, 사실성과 일관성에서 낮은 점수를 받아 전체적으로 중간 정도의 품질을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 다소 어긋나 있으며, 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.6797337983805982</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 구체적인 정보를 찾을 수 없습니다. 하지만, 일반적으로 수시모집 결과는 지원자 수, 경쟁률, 충원 합격자 등 주요 지표로 요약됩니다. 예를 들어:
+- 모집인원: 7명
+- 지원 인원: 29명 (예상치)
+- 경쟁률: 약 4.14대 1 (예상치)
+실제 결과는 입학처 공지나 대학 홈페이지에서 확인할 수 있습니다. 정확한 데이터를 얻으려면, 해당 대학의 입학처 웹사이트 또는 공식 발표 자료를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 응시 여부에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 일부 전형에서 수능 응시를 요구하지 않는다고 주장하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 응시가 필수라고 명시하고 있으나, 생성된 응답은 특정 전형에서 수능 응시가 필요하지 않다고 하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 시도하고 있으나, 잘못된 정보를 바탕으로 하고 있어 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다르게, 수능 응시 여부에 대한 부정확한 설명을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문에서 요구하는 단순한 답변에 비해 복잡한 설명이 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있습니다. 수능 응시 여부에 대한 잘못된 정보를 제공하여 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.524976707278453</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학을 위한 정시모집에서 일부 전형에서는 수능 응시를 필수로 요구하지 않습니다. 그러나 특정 전형에서는 수능 점수가 필요하거나, 수능 점수가 있는 경우 더 유리한 평가를 받을 수 있습니다.
+예를 들어:
+1. **학생부종합전형**: 대부분의 학생부종합전형은 수능 성적을 반영하지만, 일부 전형에서는 수능 응시 여부에 상관없이 지원이 가능합니다.
+2. **평생학습자전형 / 성인학습자전형 / 재직자전형**: 이들 전형은 주로 학생부와 면접을 중심으로 평가하므로, 수능 응시 여부에 크게 영향을 받지 않습니다.
+3. **조기취업형계약학과전형**: 일부 모집단위에서는 수능 점수가 필요하지만, 다른 모집단위에서는 수능 없이 지원 가능합니다.
+따라서 특정 전형별로 수능 응시 여부에 대한 정확한 정보를 확인해야 합니다. 각 전형의 세부 조건을 꼼꼼히 살펴보고, 필요하다면 입학처나 학과 담당자에게 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우의 대학 지원 가능성에 대한 정보가 잘못된 내용을 포함하고 있습니다. 원문에서는 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 10년이 지난 경우 지원이 드물다고 언급하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 상반된 정보를 제공합니다. 원문은 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 특정 조건을 제시하며 이를 부정하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있지만, 주제의 핵심을 벗어나 추가적인 정보와 조건을 제시하고 있어 직접적인 관련성이 떨어집니다. 원문이 명확한 답변을 제공하는 반면, 생성된 응답은 불필요한 세부사항을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 일관성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결성이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 여러 주제를 다루고 있어 다소 산만하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원문은 모든 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족하며, 주제와 관련된 정보가 아닌 다른 조건을 제시하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 불일치로 인해 혼란스러울 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.5058267029726757</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业后超过10年再申请大学的情况比较少见。大多数大学的招生政策针对的是应届高中生和往届生（通常指毕业2-3年内）。不过，具体情况可能会有所不同。
+您提到的情况可能涉及以下几个方面：
+1. **特殊招生计划**：有些学校或专业会有特殊的招生计划，比如成人教育、在职人员进修等，这些计划可能会放宽对申请者年龄的限制。您可以查看目标学校的招生简章，了解是否有适合您的特殊招生计划。
+2. **重新参加高考**：如果您之前没有参加过高考（大学入学考试），可以考虑重新参加高考，然后通过高考成绩申请大学。
+3. **其他入学途径**：有些学校可能会有针对社会人士的入学途径，如成人教育学院、开放大学等。这些途径可能对年龄和学历要求有所不同。
+建议您访问目标学校的官方网站或直接联系招生办公室，了解具体的招生政策和要求。如果有可能的话，也可以咨询专业的留学顾问获取更详细的指导。
+[更多详细信息可以参考学校官网](https://ipsi.deu.ac.kr/main.do)。</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 정시 모집 일정에 대한 요약을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8402113167498222</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+     - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 발표 및 고지서 교부 내용 동일
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 09:00
+     - 내용 동일
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용 동일
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 09:00
+     - 내용 동일
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용 동일
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용 동일
+이 일정은 일반적인 정시모집 일정이며, 각 전형별 세부사항이나 변경 사항은 입학안내 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9104259370571441</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+   - 참고 사이트: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+   - 서류 제출 대상: (IV. 전형별 세부 안내 참조)
+     - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14:00
+     - 발표: 홈페이지에서 개별 조회
+     - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령
+     - 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화) (은행마감시간 내)
+     - 발표 및 고지서 교부 내용 동일
+     - 등록장소: 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 09:00
+     - 내용 및 방법 동일
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 09:00 ~ 16:00
+     - 내용 및 방법 동일
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 09:00
+     - 내용 및 방법 동일
+   - 충원 합격자 2차 등록: 2024년 2월 15일 (목) 09:00 ~ 16:00
+     - 내용 및 방법 동일
+   - 충원 합격자 3차 이후 발표: 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+     - 내용 및 방법 동일
+이 일정은 일반적인 예시이며, 실제 일정은 변경될 수 있으므로 공식 입학 안내 홈페이지를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있으나, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형을 나열하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능 미응시자가 지원 가능한 전형을 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교 정시 모집 전형에 대한 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전형에 대한 정보를 체계적으로 나열하고 있으며, 각 전형에 대한 설명이 잘 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점수를 받을 수 있습니다. 그러나 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6401282716581539</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. &lt;가&gt;군 실기/실적(일반학생전형)
+   - 모집단위: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과
+   - 이 전형은 수능 점수를 요구하지 않으며 실기 및 서류 평가로 이루어집니다.
+2. &lt;나&gt;군 실기/실적(경기실적우수자전형)
+   - 모집단위: 전 모집단위
+   - 이 전형도 수능 점수가 필요하지 않습니다. 경기실적을 기반으로 평가됩니다.
+3. &lt;나&gt;군 학생부교과(농어촌학생전형), 
+   &lt;나&gt;군 학생부종합(성인학습자(정원내)전형),
+   &lt;나&gt;군 학생부종합(조기취업형계약학과전형)
+   - 이들 전형은 수능 점수가 필요하지 않습니다. 각각의 평가 기준에 따라 지원 가능합니다.
+따라서, 동의대학교 정시모집에서는 위와 같은 4개의 전형에서 수능 미응시자도 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자가 36명이라는 사실을 언급하고 있지만, "충원 합격 차수에 대한 정보가 존재하지 않는다"는 원문과 모순되는 내용을 포함하고 있습니다. 또한, 2024년도에 3차까지 충원 합격이 이루어졌다는 정보는 원문에 명시되어 있지 않으므로, 사실성과 정확성에서 일부 문제가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 있습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2024년도에 3차까지 충원 합격이 이루어졌다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 명시된 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 점을 간과하고 있어 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자 수에 대한 정확한 정보를 제공하지만, 원문에서 명시된 내용과 상충하는 부분이 있어 정확성에서 일부 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 사실성과 일관성에서 문제가 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 메시지인 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 점을 간과하고 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.7401005538822751</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 
+이는 다음과 같은 정보에서 추출할 수 있습니다:
+전형일정에서:
+- 충원 합격 (후보순위)은 36이며,
+모집인원 및 지원자 정보에서:
+- 모집 인원은 69명,
+- 지원 인원은 105명,
+- 경쟁률은 1.52,
+- 충원 합격 (후보순위)은 36명
+따라서, 전년도(2023년도)의 데이터를 구체적으로 확인하지 않았습니다만, 2024년도에 전자공학과에서는 3차까지 충원 합격이 이루어졌음을 알 수 있습니다. 
+전년도 데이터가 필요하시다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있다고 명시된 원본 텍스트와 상반되는 내용을 담고 있습니다. 원본 텍스트에 명확히 제시된 전화번호를 무시하고, 전화번호가 포함되어 있지 않다고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 모순됩니다. 원본 텍스트는 전화번호를 제공하고 있지만, 생성된 응답은 전화번호가 없다고 주장합니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전화번호를 제공하지 않는다는 잘못된 주장을 하여 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 일관되지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 전화번호가 없다는 주장은 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전화번호가 포함되어 있다는 사실을 무시하고 있습니다. 이는 심각한 부정확성을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있습니다. 전화번호가 없다는 주장은 원본의 의미와 상충합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6886788403004337</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. 웹사이트나 공식 문서를 확인하거나, "https://ipsi.deu.ac.kr/main.do" 주소에 접속하여 최신 정보를 찾아보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 처리 방법에 대해 구체적으로 설명하고 있지만, 원본 텍스트에서 언급된 '등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다'는 중요한 사실을 누락하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 원본에서 강조된 '등록 포기자 처리'와 같은 중요한 요소가 누락되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 전화 통화가 되지 않을 경우의 처리 방법에 대해 구체적으로 설명하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지 못해 약간의 일관성이 부족합니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 처리 방법에 대한 정보를 제공하지만, 원본 텍스트의 중요한 사실인 '등록 포기자 처리'를 누락하고 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 다소 부족함이 있어 종합 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 중요한 사실이 누락되어 있어 완전한 의미 전달에는 부족함이 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 원본 텍스트와 다르게 표현되어 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6131652693075809</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 다음 방법으로 처리됩니다:
+1. **재통보**: 학교에서는 초기에 전화를 다시 시도하거나 다른 연락 수단을 통해 재통보할 것입니다.
+2. **개인 정보 확인**: 학생의 개인 정보(연락처 등)가 최신인지 확인합니다. 필요하다면 학생이 자신의 연락처 정보를 업데이트하도록 요청할 수 있습니다.
+3. **추가 통지 방법**: 전화 통화가 불가능한 경우, 합격자 발표 및 등록금 납부 관련 정보는 홈페이지에서 개별 조회 가능합니다. 학생은 입학 안내 홈페이지를 통해 자신의 상태를 확인할 수 있습니다.
+4. **입학관리팀 연락**: 학생이 직접 입학관리팀에 문의하여 상황을 설명하고, 필요한 조치를 취하도록 요청할 수 있습니다.
+5. **등록 절차 진행**: 합격자 발표 이후 등록 절차는 홈페이지에서 진행 가능하므로, 학생은 이 과정을 따르도록 안내합니다.
+이러한 절차들을 통해 학교에서는 최대한 합격자에게 정보를 전달하고 필요한 조치를 취할 수 있도록 지원합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록과 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 항목이 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.7412748834000774</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+   ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+4. 고등학교 학교생활기록부 1부
+   ※ 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출 
+   ※ 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+12년 과정의 농어촌학생전형 지원 시 다음과 같은 서류가 필요합니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부
+   ※ 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능 
+   ※ 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 제출해야 할 서류 목록에서 여러 가지 오류가 있습니다. 예를 들어, '부초본'과 '모초본'이 언급되었으나, 원본 텍스트에는 그러한 서류가 포함되어 있지 않습니다. 또한, '총 4부의 초본을 제출해야 합니다'라는 문구는 원본의 내용과 일치하지 않으며, '이 외에도 추가로 제출해야 할 서류는 없습니다'라는 부분도 원본의 추가 서류 요구와 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 최종 등록자에게 추가로 제출해야 할 서류가 명시되어 있지만, 생성된 응답에서는 그러한 서류가 없다고 잘못 언급하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 핵심 내용을 일부 잘못 전달하고 있습니다. 그러나 여전히 농어촌학생전형에 대한 서류 제출에 대한 정보를 제공하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 특히, 추가 서류에 대한 언급이 원본과 다르게 되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 가지로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 제출해야 할 서류 목록에서의 오류가 두드러집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 의미적으로 부적절한 부분이 있습니다. 특히, 원본의 요구 사항을 잘못 해석하여 잘못된 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8678409606045218</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 고교 졸업증명서 (1부)
+- 지원자 본인 초본 (1부) 
+- 부초본 (1부)
+- 모초본 (1부)
+총 4부의 초본을 제출해야 합니다.
+이 외에도 추가로 제출해야 할 서류는 없습니다. 단, 이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급받아야 합니다.
+참고로 6년 과정의 경우는 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 가족관계증명서 (1부)
+- 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+- 중학교 학교생활기록부 (1부)
+- 고등학교 학교생활기록부 (1부)
+이 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급받아야 합니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 기회균등 전형이 존재하지 않는다는 사실을 반영하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현은 다소 모호하게 느껴질 수 있으며, "실시하지 않는 것으로 보입니다"라는 표현은 확정적인 사실이 아닌 추측으로 해석될 수 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "실시하지 않는 것으로 보입니다"라는 표현은 원문에서 명확히 언급된 사실과 일치하지 않습니다. 원문은 기회균등 전형이 존재하지 않는다고 명확히 말하고 있으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5):
+   - 점수: 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 정시 모집 전형에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "실시하지 않는 것으로 보입니다"라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "주요 변경사항 중에서 관련 내용을 찾지 못했으며"라는 문장이 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 대체로 일치하지만, "실시하지 않는 것으로 보입니다"라는 표현이 확정적인 사실이 아닌 추측으로 해석될 수 있어 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, "실시하지 않는 것으로 보입니다"라는 표현이 다소 불확실성을 내포하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.6096854663029172</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학교에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 주요 변경사항 중에서 관련 내용을 찾지 못했으며, 일반적으로 학교마다 전형방법이 다르므로 공식 입학전형 안내서나 대학교 웹사이트를 확인하는 것이 가장 정확한 정보를 얻는 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보를 제공하지 않으며, 잘못된 정보(예: 평균 점수 처리 방식)를 포함하고 있습니다. 원본 텍스트의 내용과는 전혀 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 평균 점수 처리 방식에 대한 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 수능 최저등급의 절사 여부에 대한 정보를 요청하는 질문에 대한 답변을 제공하고 있지만, 생성된 응답은 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.2735509754125868</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会学考科的成绩分别是2和3等第，那么它们的平均分是2.5。在这种情况下，大多数大学会采用四舍五入的原则来处理小数点后的成绩。
+对于您提到的情况（2和3等第），通常会有以下几种处理方式之一：
+1. **四舍五入**：将2.5四舍五入到最接近的整数，即3。这是最常见的做法。
+2. **向下取整**：直接取2.5的小数点前的部分，即2。
+具体采用哪种方法取决于大学的规定。建议您查看东国大学的具体政策或咨询学校的招生办公室以获取准确信息。
+如果东国大学规定使用四舍五入的方法，则2和3等第的平均分会是3；如果是向下取整，则为2。</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "1차 충원 합격자 등록"에 대한 내용이 원문에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있으며, 발표 일정과 차수에 대한 내용이 일치합니다. 다만, 추가된 등록 일정이 원문에 포함되어 있지 않아 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 충원 합격자 발표에 대한 모든 주요 사항을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 원문에 없는 추가 정보(등록 일정)가 포함되어 있어 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.7153795663719218</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 경우, 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 1차 충원 합격자 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: 1차 충원 합격자 등록
+3. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 09:00 (발표)
+     - 2024. 02. 15.(목) 09:00~16:00 (등록)
+4. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 
+     - 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 (발표)
+     - 개별 전화 통보 시 안내 (등록)
+따라서, 정시 충원 합격자 발표는 총 3차로 이루어지며, 각 차례별로 일정이 다르게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 평균 점수와 관련된 정보를 잘못 해석하고 있으며, 제공된 데이터와 일치하지 않는 수치를 사용하고 있습니다. 예를 들어, 평균 점수와 관련된 수치가 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히, 모집 인원과 지원자 수에 대한 정보가 원본 텍스트에 포함되어 있지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성을 떨어뜨릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 따라서 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 점수와 관련된 수치가 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 일부 정보는 부적절하게 해석되어 있습니다. 따라서 의미적 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6072090524527782</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집인원 및 지원자 수**：根据您提供的信息，该专业有10个名额，但支持人数为105人。这意味着竞争非常激烈。
+2. **성적 평균 및 분산**：从给定的数据来看，国语+数学+探究（2科）（加分后）标准转换总分的平均值是286.64，标准差是21.80。这表明成绩分布较广。
+3. **英语等级和科目成绩**：您的英语等级为4.6，属于较好的水平；而国语+数学+探究的成绩为4.6，也相对较好。
+4. **加权分数计算**：根据给定的公式（国语 + 数学 + 探究（2科）（加分后）标准转换总分 * 0.75 + 英语等级点数 * 0.25），我们可以进行估算。假设您的探究成绩为4.6，那么：
+   - 国语+数学+探究（2科）（加分后）标准转换总分为286.64
+   - 英语等级为4.6，对应139分
+   计算公式：(286.64 * 0.75) + (139 * 0.25)
+   = 214.98 + 34.75
+   ≈ 249.73
+5. **排名情况**：虽然没有具体的数据，但可以推测您的成绩在支持者中处于较好水平。如果其他考生的成绩普遍较低，则您有可能获得较好的排名。
+综上所述，尽管e비즈니스学专业的竞争非常激烈，但根据提供的信息来看，您的成绩（尤其是英语和综合科目）相对较好，因此理论上是有可能通过加权分数计算后进入该专业的。不过，最终能否录取还需考虑其他考生的具体情况以及学校具体的录取规则。
+建议您关注学校的详细录取分数线及排名情况，并做好充分准备以应对可能的竞争压力。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 제공하지만, 영어 등급 평균이 2.88로 잘못 기재되어 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.66이라고 명시되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 평균 점수에 대한 추가 정보를 제공하면서 원본 텍스트의 주제와 약간의 불일치를 보입니다. 특히, 정시 등급 5.3에 대한 합격 가능성에 대한 해석이 다소 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 누락되어 있습니다. 그러나 경쟁률과 평균 점수에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 영어 등급에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 또한, 정시 등급 5.3에 대한 해석이 원본 텍스트와 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 정보의 왜곡으로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6870444785732469</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 경쟁률 및 평균 점수를 살펴보겠습니다.
+- 모집 인원: 15명
+- 지원 인원: 95명
+- 경쟁률: 6.33 (약 6.33대 1)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 326.89
+- 영어 등급의 평균: 2.88
+이러한 데이터를 바탕으로 정시 등급 5.3에 해당하는 수능 점수가 대략 400점 정도일 것으로 추정됩니다.
+e비즈니스학과의 최소 경쟁률은 약 6.33대 1이며, 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 326.89입니다.
+정시 등급 5.3에 해당하는 수능 점수가 약 400점으로 추정되면, 이는 평균 점수보다 높은 수준이며 경쟁률도 상대적으로 낮습니다. 따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 있습니다만, 확실한 것은 아닙니다.
+최종 결정에는 여러 요소가 포함되므로, 정확한 예측을 위해서는 동의대학교 입학사정관들의 평가 기준 및 기타 전형 방식 등을 고려해야 합니다. 따라서 최초 합격 가능성은 있으나, 확실하지 않은 상황입니다.
+추가적으로 지원 시에는 다음과 같은 점들을 고려해보세요:
+1. 개인의 전공 적합성
+2. 추가 면접 등 다른 평가 요소
+3. 동기부여 및 진로 계획
+자세한 정보는 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 정보와 관련된 사실을 잘못 해석하고 있으며, 원본 텍스트의 내용을 왜곡하고 있습니다. 원본 텍스트는 예비 38번의 경우 예비 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 경쟁력 있는 성적을 강조하며 예비 합격 가능성을 높게 평가하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 예비 38번의 경우 예비 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 성적이 높고 경쟁력이 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 정보인 예비 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 예비 38번의 경우 예비 합격 가능성이 낮다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트의 핵심 정보를 잘못 해석하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 예비 합격 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 일치하지 않아 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.466981607429269</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提到的平均标准转换总分是426.25，这在e비즈니스학과（电子商务学部）中属于较高水平。根据之前的数据，该专业的竞争率为8.90，录取人数为31人。
+2. **排名情况**：虽然没有直接提到你的具体排名，但平均分426.25表明你在申请者中的位置应该比较靠前。
+3. **其他因素**：
+   - 面试表现：如果面试中表现出色，可能会增加录取机会。
+   - 个人陈述和推荐信等补充材料的质量也很重要。
+根据这些信息，你的成绩看起来非常有竞争力。在竞争率为8.90的情况下，平均分426.25应该能够让你进入预录取名单（预38名）。然而，最终结果还取决于其他申请者的具体情况。
+建议你：
+- 确认是否有面试环节，并做好充分准备。
+- 关注学校发布的任何补充材料提交要求。
+- 保持积极态度，等待最终结果。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 정확하게 반영하고 있으며, 3.44라는 성적이 평균보다 낮다는 점도 올바르게 언급하고 있습니다. 그러나 "합격 가능성이 있다"는 주장은 다소 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 추가적인 데이터(모집 인원, 지원 인원 등)를 제공하여 더 많은 맥락을 제공합니다. 다만, "합격 가능성이 있다"는 부분은 원본 텍스트의 결론과 약간의 차이가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, "합격 가능성이 있다"는 주장은 다소 주관적일 수 있습니다. 따라서 완벽한 정확성은 아니라고 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 주관성이 있어 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.6109033898677704</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 지원 자료를 바탕으로 분석해보겠습니다.
+간호학과는 나군 수능(일반학생전형)으로 모집되며, 해당 전형의 최종 등록자 정보를 보면 다음과 같습니다:
+- 모집인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 영어 등급의 평균: 2.34
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+이러한 정보를 바탕으로, 성적 3.44는 평균보다 낮은 수준입니다. 그러나 동의대학교 간호학과의 경우 경쟁률이 높고 충원 합격자 수가 많아서 단순히 성적이 낮다고 합격할 확률이 낮다고 단정하기는 어렵습니다.
+결론적으로:
+1. 3.44라는 성적은 평균보다 낮지만, 경쟁률과 모집인원을 고려하면 여전히 합격 가능성은 있습니다.
+2. 수능 점수와 영어 등급이 중요하므로, 이 부분에서 높은 점수를 받았다면 합격 가능성이 더 높아질 수 있습니다.
+3. 다른 지원자들과의 비교 및 전형 요소(학생부 등)가 중요한 역할을 하므로, 모든 자료를 종합적으로 고려해야 합니다.
+따라서, 3.44라는 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다. 추가적인 지원자들의 성적과 학생부 등의 정보를 참고하여 최종 결정을 내리는 것이 좋겠습니다. 필요하다면, 동의대학교 입학처에 문의하거나 전문가의 조언을 구하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 정확하게 반영하고 있으며, 지원자의 성적이 평균보다 높은 경우 합격 가능성이 높다는 점도 잘 설명하고 있습니다. 그러나 "성적 평균보다 낮음"이라는 부분은 다소 모호하게 표현되어 있어, 평균 점수와 비교할 때의 맥락이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "성적이 2.52로, 평균 점수(353.48)보다 상당히 낮습니다."라는 주장은 원본 텍스트의 맥락과 일치하지 않습니다. 원본 텍스트는 2.52가 평균보다 높은 성적이라고 언급하고 있기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 지원자의 성적과 간호학과의 합격 가능성에 대한 분석을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어져서 완전한 일관성을 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 성적이 평균보다 낮다는 주장은 원본 텍스트와 상충하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 일관성 문제로 인해 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6695755132258873</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 수능(일반학생전형) 최종등록자에서, 지원 인원이 145명이고 경쟁률은 6.59이며 충원 합격자는 37명으로 나타났습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이고, 표준 편차는 4.66입니다. 영어 등급의 평균은 2.34이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 481.70이고, 표준 편차는 6.87입니다.
+이러한 통계를 바탕으로 볼 때, 성적이 2.52인 경우 동의대학교 간호학과에 최종합격하기 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **성적 평균보다 낮음**: 현재 성적이 2.52로, 평균 점수(353.48)보다 상당히 낮습니다.
+2. **영어 등급이 낮음**: 영어 등급의 평균은 2.34로, 지원자들 중에서 비교적 낮은 수준입니다. 이는 간호학과에 합격하기 위한 중요한 요소일 수 있습니다.
+3. **표준 편차 고려**: 표준 편차가 높아서 성적이 평균보다 약간 낮더라도, 일부 지원자들은 더 낮은 점수를 가지고도 합격하였습니다.
+4. **전반적인 경쟁률 및 충원 수**: 6.59의 경쟁률과 37명의 충원 합격자가 있다는 점을 고려하면, 성적이 조금 낮더라도 특별한 이유가 있다면 합격 가능성은 있습니다.
+결론적으로, 성적이 2.52인 경우 간호학과에 최종합격하기는 어렵지만, 다음과 같은 조건들이 충족된다면 가능성이 있을 수 있습니다:
+- **특이성 있는 경험 또는 활동**: 특별한 경험이나 활동을 통해 전공적합성을 증명할 수 있다면 이점을 강조해야 합니다.
+- **면접 성과**: 면접에서 좋은 평가를 받는다면 합격 가능성은 높아질 수 있습니다.
+따라서, 성적이 2.52인 경우에도 최종합격을 위한 추가적인 노력이 필요하며, 지원자 본인이 특별한 경험이나 활동을 가지고 있다면 이를 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 3.7이라는 성적이 간호학과의 평균 등급보다 낮다고 언급하고 있으나, 실제로는 3.7이 평균 등급인 3.37보다 높은 점수입니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 응답은 간호학과의 경쟁률과 입학사정관의 평가 기준을 언급하고 있지만, 3.7이라는 성적이 낮다고 잘못된 정보를 제공하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 간호학과의 입학 가능성에 대한 다양한 요소를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 요소가 명확하게 구분되어 있습니다. 그러나 3.7 성적에 대한 잘못된 해석이 전체적인 일관성을 약간 해치고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답에서 제시된 정보 중 일부는 정확하지만, 3.7 성적이 평균 등급보다 낮다는 잘못된 주장이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 유용한 정보를 제공하지만, 사실과의 불일치로 인해 여러 차원에서 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락에서 작성되었습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하게 작성되어 이해하기 쉽지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4689021609164997</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 중간적인 점수로, 간호학과의 경쟁률과 입학사정관들의 평가 기준을 고려해야 합니다.
+1. **경쟁률**: 간호학과는 일반적으로 높은 경쟁률을 가지고 있습니다. 따라서 3.7이라는 성적만으로 합격하기는 어렵습니다.
+2. **입학사정관의 평가**: 정시 성적이 아닌 다른 요소들도 중요하게 고려됩니다:
+   - **면접 성적**: 면접에서 좋은 점수를 받으면 이점이 있습니다.
+   - **학생부 교과성적**: 전반적인 학업 능력이 반영됩니다. 3.7이라는 평균 이상의 성적이면 이 부분은 어느 정도 인정받을 수 있습니다.
+   - **진로 탐색 활동 및 경험**: 진로 관련 활동이나 경험, 자원봉사 등이 있다면 이는 긍정적으로 작용할 수 있습니다.
+   - **추천서**: 교사나 학교 관계자의 추천서가 있다면 도움이 될 수 있습니다.
+3. **추천서와 자기소개서**: 잘 작성된 자기소개서와 추천서는 입학사정관들의 인상을 크게 바꿀 수 있습니다.
+4. **특기사항 및 활동**: 특기사항이나 관련 활동 경험을 잘 기재하면 이점이 될 수 있습니다.
+따라서, 3.7이라는 성적만으로는 합격하기 어렵지만, 위의 요소들을 잘 준비하고 제출한다면 좋은 결과를 얻을 가능성이 있습니다. 
+추천되는 조치:
+- 면접 준비에 충분히 시간을 투자하세요.
+- 자기소개서와 추천서를 잘 작성해 보세요.
+- 진로 관련 활동이나 경험을 자세하게 기재하세요.
+입학사정관들은 학생의 전반적인 능력과 잠재력을 평가하므로, 성적 외에도 다양한 요소들을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 수능 최저 기준과 전형 유형에 대한 정보를 제공하고 있으며, 수능 성적이 2.58인 경우의 가능성을 언급하고 있습니다. 그러나 수능 최저 기준이 2.58이라는 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 최저 기준에 대한 정보가 원본 텍스트와 다르게 제시되고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 수능 최저 기준에 대한 정보가 원본 텍스트와 일치하지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 수능 최저 기준에 대한 정보가 다르게 제시되어 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5571554513067165</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **전형 유형**: 간호학과는 일반적으로 실기/실적 위주 전형으로 운영됩니다.
+2. **수능 최저 기준**: 2024년 동의대학교 간호학과의 수능 최저 기준은 2.58입니다.
+따라서, 수능 성적이 2.58인 경우, 해당 학과의 수능 최저 기준을 충족하고 있습니다. 그러나 실기/실적 위주 전형이므로, 실기 점수와 서류 평가 등 다른 요소들도 중요한 역할을 합니다.
+**추천 사항:**
+1. **실기 점수 확인**: 실기 절차나 면접 등의 결과를 잘 준비하고 대비해야 합니다.
+2. **서류 준비**: 서류 평가에서도 좋은 성적을 받을 수 있도록 철저히 준비해야 합니다.
+3. **추천서 및 자기소개서 작성**: 이 부분도 중요하므로 충분한 시간을 들여 잘 작성해보세요.
+결론적으로, 수능 최저 기준만으로는 합격 확률이 높지 않을 수 있지만, 실기/실적 평가에서 좋은 성적을 받으면 합격 가능성은 있습니다. 준비를 철저히 하시면 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 게임공학과의 예비 합격 가능성에 대한 질문에 대해 여러 가지 요인을 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공하는 구체적인 정보(예비 7번의 경우 합격 가능성이 낮다는 점)를 반영하지 않고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 다양한 요인을 고려해야 한다고 하여 모순된 정보를 제시합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 일반적인 입학 요건에 대한 정보를 나열하고 있습니다. 원본 텍스트의 핵심 내용과는 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 언어가 다르기 때문에 일관성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 원본 텍스트의 맥락과 연결되지 않아 일관된 흐름이 부족합니다. 그러나 내부적으로는 논리적인 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 예비 7번의 합격 가능성에 대한 구체적인 정보를 제공하지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 그러나 일부 일반적인 정보는 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 원본 텍스트와의 관련성이 떨어져 질문에 대한 명확한 답변을 제공하지 못합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.463220086765993</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学部录取,我需要考虑以下几个因素:
+1. 您的总分是否达到该专业的最低录取分数线。
+2. 您在申请时提交的所有文件是否完整且符合要求。
+3. 您是否满足该专业对考生的具体要求，如年龄、学历等。
+根据您提供的信息，游戏学部(40个名额)已经招满了7名学生。这意味着目前可能没有剩余的名额可以录取新的学生。
+不过,具体能否录取还需要看学校最终的录取结果和是否有退档等情况发生。建议您密切关注学校的官方通知,了解最新的招生情况。
+如果您还有其他问题或需要进一步的信息,请随时告诉我!</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 게임공학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 원본 텍스트의 내용을 대체로 잘 반영하고 있습니다. 그러나 일부 세부사항(예: 표준 변환 점수)에서 원본 텍스트와의 차이가 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(예: 표준 변환 점수와 경쟁률)에 따라 일관성이 떨어질 수 있습니다. 원본 텍스트의 주된 내용과는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 답변을 제공하는 데 적절한 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 잘 반영하고 있지만, 추가된 정보가 원본의 사실과 완전히 일치하지 않기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 세부사항에서의 불일치로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 복잡한 문장 구조가 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6641482462941124</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시 모집요강을 바탕으로 추론해보겠습니다.
+1. **모집단위와 전형**: 게임공학과는 일반학생전형(수능)으로 모집됩니다.
+2. **성적 평균 및 경쟁률**:
+   - 2024년 수능 최종등록자에서 게임공학과의 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균은 315.78입니다.
+   - 경쟁률은 6.02이며, 충원 합격자는 4명이었습니다.
+3. **성적 분석**:
+   - 당신의 성적이 4.16이라면, 이는 표준 변환 점수로 대략 315.78보다 약간 높은 수준입니다.
+   - 그러나 정확한 성적을 알기 위해서는 국어, 수학, 탐구 영역별로 실제 점수가 필요합니다.
+4. **경쟁률과 충원 합격자**:
+   - 현재 게임공학과의 경쟁률은 6.02이며, 이는 매우 높습니다.
+   - 충원 합격자는 4명이었으므로, 추가적으로 몇 명을 받을 수 있을지는 불확실합니다.
+5. **추가 합격 가능성**:
+   - 현재의 성적은 평균보다 약간 높지만, 경쟁률이 매우 높기 때문에 추가 합격 확률은 낮습니다.
+   - 그러나 정시 모집에서는 다양한 요인(면접 성과 등)이 고려되기 때문에 완전히 배제되지는 않습니다.
+**결론**: 현재의 성적 4.16은 게임공학과에 추가로 합격할 확률이 매우 낮지만, 정확한 예측은 불가능합니다. 수능 점수뿐만 아니라 면접 등 다른 평가 요소도 고려되기 때문에 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 학생부교과성적 반영방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 정시 성적 3.75에 대한 합격 가능성에 대한 직접적인 언급이 부족하다. 또한, 2024학년도에 대한 정보가 추가되었으나, 원본 텍스트의 핵심 내용과는 다소 거리가 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 새로운 정보가 추가되면서 원본의 핵심 메시지와 일치하지 않는 부분이 있다. 특히, 정시 성적 3.75에 대한 합격 가능성에 대한 명확한 언급이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 입학전형에 대한 정보를 제공하며, 원본 텍스트와 관련이 있지만, 원본의 질문에 대한 직접적인 답변이 부족하다. 그러나 관련된 정보가 포함되어 있어 높은 점수를 부여한다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달된다. 그러나 원본 텍스트의 핵심 메시지와의 연결이 약해 다소 일관성이 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2024학년도에 대한 새로운 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과는 다소 차이가 있다. 특히, 정시 성적 3.75에 대한 정확한 해석이 부족하다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 내용과의 일치성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 관련된 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족하다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 긴 문장으로 인해 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6518061363638412</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형의 경우, 정시모집군 변경사항에 따라 경영정보학과의 학생부교과성적 반영방법이 변경되었습니다. 2023년도에는 반영과목 전 모집단위(한의예과 제외) 8과목: 국어, 수학, 영어교과 중 석차등급 상위 8과목 4과목: 8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목 한의예과 : 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목이었으나, 2024년도에는 반영과목 전 모집단위(한의예과 제외) 12과목: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목 한의예과: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목으로 변경되었습니다.
+따라서 경영정보학과에 지원하려는 학생이 정시 성적 3.75를 가지고 있다면, 이 성적이 반영되는 과목들 중 상위 등급을 차지하고 있어야 합니다. 2024년도의 경우 12과목 중 상위 등급을 가져야 하므로, 3.75라는 점수는 상위 등급에 해당할 가능성이 있습니다.
+하지만 최종적으로는 학교생활기록부와 성적 등급이 어떻게 반영되는지 확인해야 합니다. 따라서 다음과 같은 절차를 따르시면 도움이 될 것입니다:
+1. **학업성적 확인**: 현재까지의 성적을 정확하게 확인하고, 12과목 중 상위 등급을 차지하는 과목들이 있는지 확인하세요.
+2. **학교생활기록부 확인**: 학교생활기록부를 통해 실제 반영되는 등급이 어떤지 확인하세요.
+3. **입학사정관 면접 준비**: 성적 외에도 학업역량, 전공적합성 등을 잘 준비해두세요.
+만약 12과목 중 상위 등급을 차지하고 있다면, 최초등록자로 가능할 것으로 보입니다. 하지만 확실한 판단을 위해서는 입학처나 관련 홈페이지를 통해 자세한 정보를 확인하는 것이 좋습니다. 
+[입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시면 더 자세한 내용을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 내용을 왜곡하고 있습니다. 원본 텍스트는 4.2가 평균보다 낮다고 명시하고 있지만, 생성된 응답은 4.2가 높은 성적이라고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 합격 가능성을 높게 평가하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 관련 없는 질문을 제기하고 있습니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 일관성이 부족하여 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많아 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.5666303508094346</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要了解一些具体信息：
+1. 经营信息学部（经营信息学科）的录取标准是什么？
+2. 最初注册者指的是什么？是否有特定的要求或限制？
+不过，根据您提供的信息，我们可以做一些推测和分析。
+首先，从您给出的数据来看：
+- 该专业的最终注册者的平均成绩为4.2。
+- 这个成绩在所有科目（国语、数学、探究）的标准化转换分数中处于较高水平。
+如果经营信息学部对最初注册者有类似的要求，并且您的成绩是4.2，那么理论上您有可能成为最初的注册者。但是，具体能否录取还需要考虑其他因素，如：
+- 是否满足特定的专业要求或限制。
+- 学校是否有特别的招生政策或其他选拔标准。
+建议您直接咨询该大学的招生办公室以获取最准确的信息和确认您的资格。他们能够提供具体的指导并告知是否符合最初注册者的条件。</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적과 관련된 정보를 포함하고 있으며, 수능 최저기준이 없다는 점도 언급하고 있습니다. 그러나 "현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다."라는 원문과는 다르게, 생성된 응답에서는 5.33이 평균보다 약간 높다고 잘못 언급하고 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 5.33의 성적에 대한 해석이 상반되어 일관성이 떨어집니다. 원문에서는 5.33이 평균보다 낮다고 명시했으나, 생성된 응답에서는 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 추가적인 고려사항을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 5.33에 대한 해석이 일관되지 않아 약간의 논리적 흐름이 방해받습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 5.33의 성적에 대한 잘못된 해석으로 인해 정확성이 떨어집니다. 원문과의 불일치가 문제입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 5.33에 대한 해석에서의 오류로 인해 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6511233149850363</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 전형요소 반영비율을 살펴보면 수능 위주로 진행됩니다. 수능 최저기준은 없지만, 평균 성적과 표준편차를 고려할 때 합격 가능성에 대해 판단해볼 수 있습니다.
+- **수능 4개 영역 등급의 평균**: 4.31
+- **수능 4개 영역 등급의 표준 편차**: 0.23
+당신의 성적은 5.33으로, 이는 평균보다 약간 높습니다. 특히 수능 최저기준이 없으므로, 개인적인 경쟁률과 지원자들의 성적 분포를 고려할 때 합격 가능성은 있습니다.
+하지만, 정확한 합격 가능성을 판단하기 위해서는:
+1. **경쟁률**: 2024학년도 지원자의 수와 모집인원을 고려해야 합니다.
+2. **성적 분포**: 지원자들의 성적이 어떻게 분포되어 있는지 확인해야 합니다.
+따라서, 정확한 답변을 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 추가적으로 면접이나 서류평가 등 다른 평가 요소를 고려할 수도 있으므로, 모든 정보를 종합적으로 검토하는 것이 중요합니다.
+추가적인 자세한 정보는 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 전화로 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 3.82, 수능 4개 영역 등급 평균 4.74)를 언급하지 않고 있습니다. 또한, 응답은 중국어로 작성되어 있어 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 특정한 수치와 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 조언과 과거 데이터에 대한 언급으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 기준에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 현재 성적과 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 언어적 차이로 인해 약간의 불일치가 발생합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려하여 논리적으로 구성되어 있지만, 원본 텍스트의 흐름과는 다소 다릅니다. 원본의 구체적인 정보가 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 사실을 반영하지 않으며, 잘못된 정보나 오해의 소지가 있는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 차이로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4525493277787038</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业**：东义大学的生物应用工学部（Bio-applied Engineering Department）的具体录取标准。
+2. **成绩对比**：您提到的成绩为3.33，在不同科目中的表现如何？
+3. **往年数据参考**：查看该专业的历年实际录取情况，尤其是最高分、最低分和平均分。
+根据提供的信息：
+- 从整体来看，生物应用工学部的录取分数相对较高。
+- 最低录取标准（如国语+数学+探究科目）的标准转换总分为257.00至318.80之间。
+- 平均成绩在300分以上较为常见。
+您的成绩为3.33，如果这是指的标准化考试分数的话，那么这个分数可能略低于该专业的平均录取线。但是，这并不意味着完全不可能被录取，因为每年的具体情况可能会有所不同，并且还有其他因素如面试、推荐信等也可能影响最终结果。
+建议：
+1. **详细查看专业要求**：确认生物应用工学部的具体录取标准。
+2. **参考往年数据**：了解该专业的历年实际录取分数范围。
+3. **咨询学校招生办公室**：获取更准确的信息和指导。
+综上所述，虽然您的成绩略低于部分年份的平均录取线，但仍有被录取的可能性。建议您详细准备并积极申请。</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 모집 인원에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급(3.82)과는 다르게 평균 등급을 4.87로 잘못 제시하고 있습니다. 또한, 경쟁률에 대한 정보도 원본 텍스트에 포함되어 있지 않으며, 원본의 핵심 내용인 합격 가능성에 대한 언급이 부족합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급이 4.4일 경우 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 경쟁률과 다른 요소들을 고려해야 한다고 언급하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 가능성에 대한 분석을 제공하지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 각 항목 간의 연결이 다소 약해 보입니다. 특히 결론 부분에서 원본 텍스트의 핵심 메시지와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 등급을 잘못 제시하고 있으며, 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 원본 텍스트의 핵심 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 명확한 언급이 부족합니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5660889676321387</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 바탕으로 답변 드리겠습니다.
+1. **모집단위 및 지원 가능성**:
+   - 방사선학과는 인문사회과학대학에 속해 있습니다.
+   - 2024학년도 모집인원은 5명이며, 지원 인원이 36명으로 경쟁률이 높습니다 (경쟁률: 7.20).
+   - 평균 등급은 4.87이며, 표준 편차는 0.13입니다.
+2. **성적 분석**:
+   - 현재 등급 4.4는 평균보다 약간 낮습니다.
+   - 하지만 방사선학과의 경쟁률이 높아서 단순히 등급만으로 결정되는 것은 아닙니다. 다른 요소들도 고려됩니다.
+3. **추천사항**:
+   - **전공적합성 평가**: 방사선학과는 전문적인 학문 분야로, 관련 지식이나 경험을 가진 지원자가 유리합니다.
+   - **면접 및 서류평가**: 면접에서는 전공에 대한 이해도와 진정한 관심이 중요합니다. 또한, 서류 평가에서도 학업역량과 전공적합성을 잘 보여줄 수 있어야 합니다.
+   - **추천서나 추천인**: 가능하다면 교사나 관련 분야의 전문가로부터 추천서를 받는 것이 도움이 될 수 있습니다.
+4. **결론**:
+   - 현재 등급으로 방사선학과에 지원하는 것은 가능하지만, 경쟁률이 높아 성공 확률은 낮습니다.
+   - 다른 학과 중에서 자신의 강점을 살릴 수 있는 과목을 고려해 보시는 것도 좋을 것 같습니다.
+결국, 최종 결정은 본인의 진정한 관심과 열정, 그리고 지원 가능한 모든 요소를 종합적으로 판단하여 내려야 합니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 방사선학과의 평균 성적과 관련된 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 방사선학과의 영어 등급 평균이 2.8이고, 수능 4개 영역 등급 평균이 3.82라고 명시되어 있지만, 생성된 응답에서는 전혀 다른 통계(341.62와 9.80)를 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 잘못된 해석을 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 이 점수가 상대적으로 낮다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 관련이 적습니다. 원본 텍스트는 특정 성적에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 다른 통계와 전형에 대한 정보로 주제를 벗어나고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 통계와 전형에 대한 언급이 혼재되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 통계 정보를 제공합니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 정보를 제공합니다. 원본의 의도를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 정보의 혼란으로 인해 이해하기 어려운 부분도 있습니다. 특히 통계와 전형에 대한 언급이 혼재되어 있어 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6241192948383808</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 최종등록자들의 성적 분석을 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 341.62이고, 표준 편차는 9.80입니다.
+당신이 제시한 점수인 2.66은 이 통계치로 볼 때 상대적으로 낮습니다:
+- 평균보다 약간 낮음 (평균: 341.62, 당신의 점수: 2.66)
+- 표준 편차를 고려하면, 평균에서 약 -30.97표준편차 떨어져 있음
+이 점수로는 경쟁률이 높은 방사선학과에 정시로 합격하기가 어렵다고 볼 수 있습니다. 그러나 입학사정관 전형이나 특기자전형 등 다른 전형을 통해 기회를 얻을 수도 있으니, 다양한 전형을 고려해보는 것이 좋겠습니다.
+또한, 면접 성적과 서류 평가 결과도 중요한 요소이므로, 이 부분에서도 좋은 점수를 받는 것이 유리할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 GPA와 관련된 정보는 정확하게 반영하고 있으나, 농어촌 전형에 대한 구체적인 정보는 원문에 명시되어 있지 않아서 다소 불확실한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 평균 성적과 경쟁률에 대한 긍정적인 요소를 언급하고 있지만, 농어촌 전형에 대한 추가적인 정보는 원문과 일치하지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 질문에 대해 매우 관련성이 높고, 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 GPA와 관련된 정보는 정확하지만, 농어촌 전형에 대한 정보는 원문에 명시된 내용과 다소 차이가 있어 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보의 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 농어촌 전형에 대한 정보는 원문과의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5531198930288697</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수지만, 합격 여부는 여러 요소에 따라 달라집니다. 아래와 같은 요인들을 고려해보세요:
+1. **전형 유형**: 농어촌 전형은 일반적으로 경쟁이 치열할 수 있습니다.
+2. **모집 인원과 지원자 수**: 모집 인원과 지원자의 수에 따라 합격 기준 점수가 달라질 수 있습니다.
+3. **학생부 평가**: 학생부 교과성적 외에도 공동체역량, 학업역량, 전공적합성 등이 평가됩니다. 특히 농어촌 학생에게는 지역적 배려 요인이 중요할 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 점수를 받으면 유리합니다.
+5. **추천서와 자기소개서**: 이 부분도 중요한 역할을 합니다.
+6. **기타 제출 서류**: 고교 졸업증명서, 부모 초본 등이 필요하므로 정확하게 준비해야 합니다.
+3.66의 GPA는 좋은 성적입니다만, 경쟁률과 모집 인원 등을 고려하면 아직 불확실성이 있습니다. 합격 가능성은 높지만 100% 보장할 수는 없습니다. 
+추천 드리는 것은:
+- 모든 제출 서류를 정확하게 준비하고 확인하세요.
+- 면접을 잘 준비해보세요.
+- 자기소개서와 추천서에서 지역적 배려 요인을 강조해보세요.
+최종 결정은 입학사정관들이 내릴 것이므로, 최선을 다한 지원을 해보시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률에 대한 여러 요인을 언급하고 있지만, 원문에서 제공된 특정 학과 목록과 관련된 정보는 포함되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 원문에서 제시된 구체적인 정보와는 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 예비 25번의 합격 가능성에 대한 정보를 다루고 있지만, 원문에서 제공된 특정 학과 목록과는 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 여러 요인을 설명하고 있어 원문과 관련이 있지만, 원문에서 제공된 특정 학과 목록에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 합격 가능성에 대한 여러 요인을 설명하고 있지만, 원문에서 제공된 구체적인 학과 목록과 관련된 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원문과의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련된 의미를 잘 전달하고 있지만, 특정 학과에 대한 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 각 요인을 명확하게 설명하고 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4093344218764889</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 전형에서 붙을 수 있는 확률은 여러 요인에 따라 달라집니다:
+1. 모집단위와 전형방법: 각 모집단위별로 수능 성적과 서류평가 비중이 다르므로, 이에 따른 점수 분포를 고려해야 합니다.
+2. 경쟁률: 해당 모집단위의 경쟁률을 확인해야 합니다. 경쟁률이 높으면 낮은 순위도 어렵게 됩니다.
+3. 개인 성적: 자신의 수능 성적이 전체 성적 분포와 비교해 어느 위치에 있는지 중요합니다.
+4. 서류평가 점수: 일부 전형에서는 서류평가가 중요한 역할을 하므로, 이 부분에서 좋은 평가를 받는 것이 도움이 될 수 있습니다.
+5. 동점자 처리 기준: 동점자 처리 방식도 붙을 확률에 영향을 줍니다.
+현재 정보만으로는 정확한 예측은 어렵습니다. 하지만 25번의 순위는 매우 높은 점수를 요구하므로, 낮은 확률일 것으로 보입니다. 그러나 최선을 다해 준비하고, 가능한 모든 기회를 활용하면 결과가 달라질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 잘못된 정보를 포함하고 있으며, 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 제공된 통계는 경찰행정학과와 관련이 없고, 다른 학과의 정보를 잘못 인용하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 법경찰행정학부에 대한 잘못된 정보와 다른 학과의 통계를 혼합하여 제시하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보를 제공하고 있지만, 법경찰행정학부에 대한 정보가 잘못되어 있어 관련성이 낮습니다. 원본 텍스트의 핵심 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 주제 간의 연결이 부족하여 일관된 흐름이 없습니다. 법경찰행정학부와 관련된 정보가 없기 때문에 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 법경찰행정학부의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다. 이는 원본 텍스트의 사실과 정면으로 반대되는 내용입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 부족하여 독자가 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7490847840672571</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집 정보를 바탕으로 추측해보겠습니다:
+1. 전형별 모집인원을 보면 일반전형에서 정원내 모집 인원이 35명입니다.
+2. 수능 최종등록자 통계를 보면:
+   - 경영학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 300.68
+   - 회계학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 295.86
+   - 경영정보학과: 평균 국어+수학+탐구(가산점 포함) 표준변환점수 합은 313.13
+3. 이들 중 가장 낮은 점수가 경영학과의 300.68입니다.
+따라서 법경찰행정학부를 정시로 안정적으로 들어가려면, 
+- 국어+수학+탐구(가산점 포함) 표준변환점수 합이 300점 이상은 필요할 것으로 보입니다.
+- 영어 등급도 꾸준히 유지해야 합니다.
+하지만 이는 추정치이며, 정확한 점수는 입시 전략과 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다. 
+최종적으로는 동의대학교 입학처나 모의고사 성적 분석 등을 통해 개인별 적합한 목표 점수를 설정하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 전형 및 성적 산출 방식에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않다. 따라서 일부 사실이 누락되었고, 원본 텍스트의 핵심 내용을 완전히 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 정보와는 일관성이 떨어진다. 두 학과의 정보가 혼합되어 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 질문의 맥락과 관련이 있다. 그러나 원본 텍스트의 아동학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있다. 문장 흐름이 자연스럽고 이해하기 쉽다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 각 항목이 논리적으로 연결되어 있다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 원본 텍스트의 아동학과에 대한 평균 등급 정보가 누락되어 있어 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 원본 텍스트와의 연결이 부족하여 다차원적인 품질에서 약간의 부족함이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 적절하게 전달하고 있으나, 원본 텍스트의 특정 세부사항이 누락되어 있어 의미적으로 완전하지 않다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6035863741661015</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 정시 모집에서는 다음과 같은 전형이 적용됩니다:
+1. **모집군**: 나군 (학생부종합)
+2. **전형명**: 학생부종합(성인학습자(정원내)전형)
+보육가정상담학과는 이 전형을 통해 모집합니다.
+**학생부종합(성인학습자(정원내)전형)**의 경우, 평균적인 합격 기준은 다음과 같습니다:
+- **고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자**
+- **학생부 종합평가**: 서류(학생부)60% + 면접40%
+**성적 산출 방식**은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급 점수 (등급에 따른 점수)
+- 탐구 표준점수
+**면접 평가**: 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+**정시 성적 산출 예시**:
+- 국어: 104
+- 수학(미적분): 108
+- 영어 등급: 5 (점수: 107)
+- 탐구: 47 + 59 = 106
+이 경우, 합격 가능성은 다음과 같습니다:
+- **국어와 수학**: 상대적으로 높은 점수를 받았습니다.
+- **영어 등급**: 5등급으로 중간 정도의 점수입니다.
+- **탐구 영역**: 두 과목 모두 좋은 성적을 받았습니다.
+**면접 평가**: 학업역량과 전공적합성에 대한 준비가 중요합니다. 지원동기와 학업계획, 전공 적합성을 잘 설명할 수 있어야 합니다.
+따라서, 정시 등급 5.33은 중간 정도의 성적이므로, 충분히 합격 가능성은 있습니다만, 경쟁률과 모집인원 등을 고려하면 높은 경쟁력을 갖춘 지원자들과 함께 평가받을 것입니다.
+결론적으로, **합격 가능성이 있지만, 강한 경쟁력이 필요합니다**. 충분히 준비하고 면접에서도 좋은 성적을 받도록 노력해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격에 대한 여러 요인을 고려하고 있으며, 예비 번호 12번에 대한 가능성을 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 날짜와 절차에 대한 정보는 포함되어 있지 않아 일부 세부사항이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 추가적인 요인들을 제시하면서 원본의 정보와 다소 상충하는 부분이 있습니다. 예를 들어, 경쟁률이나 평균 점수에 대한 언급은 원본 텍스트에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 나열되어 있습니다. 그러나 일부 부분에서 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격에 대한 일반적인 정보와 예비 번호에 대한 가능성을 잘 설명하고 있지만, 원본 텍스트의 구체적인 사실을 완전히 반영하지는 못했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 충원 합격에 대한 적절한 정보를 제공합니다. 다만, 일부 추가 정보가 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.7137832383713456</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3차 충원 합격에 대한 확실한 예측은 어렵지만, 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 경쟁률: 이전 차수와 비교했을 때, 3차에서는 이미 많은 학생들이 합격하거나 등록을 마쳤기 때문에 경쟁률이 낮아질 가능성이 있습니다.
+2. 평균 점수: 이전 차수의 최초합격자들의 평균 점수가 제공되었는데, 이를 참고하여 자신의 점수가 어느 정도인지 판단할 수 있습니다.
+3. 전형 방식: 동의대학교는 주로 수능 성적을 기반으로 합격자를 선발합니다. 따라서 수능 점수가 높다면 충원 합격 가능성은 높아질 것입니다.
+4. 지원 자격: 자신의 지원 자격과 모집 단위, 전형 요건 등을 다시 확인해보세요. 모든 조건을 충족하고 있다면 더 좋은 결과를 기대할 수 있습니다.
+5. 서류 및 실기 점수: 만약 서류평가나 실기고사가 포함된다면, 이 부분에서도 최선을 다해야 합니다.
+6. 학교 정책: 일부 대학은 충원 합격자에게 추가 면접이나 서류심사를 요구할 수 있으므로, 이 점도 고려해보세요.
+결론적으로, 예비 12번으로서는 아직 가능성은 남아 있습니다. 하지만 확실한 것은 아니며, 최선을 다하고 기다리는 것이 좋겠습니다. 학교 입학처나 관련 홈페이지를 통해 추가 정보를 확인하는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75라는 점수가 유아교육학과에 지원할 가능성이 있다고 언급하고 있지만, 원본 텍스트에서는 4.75의 성적으로는 유아교육학과에 지원하기 어렵다고 명시하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답은 가능성이 있다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 논의하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 특히 유아교육학과에 지원 가능성에 대한 주장은 원본과 반대입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성이 낮아 전체적인 품질이 떨어집니다. 관련성은 높지만, 다른 차원에서의 부족함이 전체 점수를 낮추고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.7562841641028744</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 영어 등급은 상당히 높은 점수입니다. 한국의 대다수 고등학교 학생들이 영어 수능에서 얻을 수 있는 최고점이기도 합니다. 이와 같은 높은 성적을 가지고 있다면, 유아교육학과에 지원하는 것은 가능성이 있습니다.
+유아교육학과는 일반적으로 인문사회과학 분야의 학과로, 전형 방식은 다양하지만 대부분 수능 점수를 기준으로 합니다. 특히, 교직 관련 학과에서는 영어 실력도 중요하게 평가받을 수 있습니다. 따라서 4.75라는 높은 영어 성적은 유리한 요소로 작용할 것입니다.
+그러나 유아교육학과의 경쟁률이나 모집인원, 지원자의 전체적인 성적 분포 등을 고려해야 합니다. 이 학과는 대체적으로 인기 있는 학과이므로 경쟁률이 높을 수 있습니다. 따라서:
+1. **경쟁률 확인**: 해당 학과의 2024학년도 최종 등록자들의 성적 분포를 확인해 보세요.
+2. **모집인원**: 모집 인원이 적다면 경쟁률은 높을 수 있습니다.
+3. **전체 지원자의 성적**: 전체 지원자의 성적이 높다면, 4.75라는 점수로 충분히 합격할 가능성은 있지만, 여전히 경쟁이 치열할 것입니다.
+결론적으로, 4.75라는 높은 영어 등급을 가지고 있다면 유아교육학과에 지원하는 것은 가능성이 있습니다만, 최종 결정을 내리기 위해서는 상세한 정보를 확인하고 자신의 위치를 정확히 파악해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 성적 분석과 모집 인원, 지원자 수에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 영어 등급 평균(6.33)과 수능 4개 영역 등급 평균(7.08)과는 다르게 영어 등급 평균을 4.19로 제시하고 있어 사실과 일치하지 않습니다. 또한, 제시된 성적(4.16)이 평균보다 낮다고 언급했으나, 원본 텍스트에서는 합격 가능성이 높다고 하였으므로 이 부분에서의 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 비교와 합격 가능성에 대한 해석이 다릅니다. 원본 텍스트는 4.16이 평균보다 높은 성적이라고 하였으나, 생성된 응답에서는 낮다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 질문자의 관심사와 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 성적 비교 부분에서의 모순으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 다르게 제시된 부분이 있어 정확성이 떨어집니다. 특히 평균 등급에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균 이상의 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절합니다. 그러나 원본 텍스트의 특정 사실과 다르게 해석된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5556813730148475</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 나군 수능(일반학생전형)에 대한 정보를 바탕으로 답변 드리겠습니다.
+- **모집인원 및 지원자 수**: 
+  - 모집 인원은 13명입니다.
+  - 지원 인원은 24명이며, 경쟁률이 약 1.85:1입니다.
+- **최종등록자의 성적 분석**:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 304.70이며, 표준 편차는 15.86입니다.
+  - 영어 등급의 평균은 4.19이며, 표준 편차는 0.28입니다.
+- **성적 비교**:
+  - 제시된 성적(4.16)은 현재 평균보다 약간 낮습니다.
+  - 하지만 표준 편차가 상대적으로 작으므로, 동일한 등급 범위 내에서는 경쟁력이 있을 수 있습니다.
+- **합격 가능성**:
+  - 경쟁률이 1.85:1로 낮은 편이며, 지원자 중에서 상위 절반 정도만 합격합니다.
+  - 성적이 약간 낮더라도, 다른 요인(면접 성적 등)을 고려하면 합격 가능성은 있습니다.
+- **추천**:
+  - 면접 준비를 철저히 하세요. 면접에서는 학업역량과 전공 적합성 등을 평가하므로 지원 동기와 학업 계획, 전공에 대한 이해도 등을 잘 준비해야 합니다.
+  - 서류 제출 시 진위 여부 검증을 위해 작성된 면접 질문지를 활용하여 철저히 준비하세요.
+결론적으로, 성적이 약간 낮더라도 경쟁률이 낮고, 다른 평가 요소를 잘 준비한다면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 모집이 진행된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변이 아닌, 잘못된 정보와 관련된 내용을 포함하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4422391301035705</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 서울대학교의 정시모집에서 소프트웨어융합학과에 지원 가능한 정보를 바탕으로 답변 드리겠습니다.
+1. **지원 가능 여부**: 
+   - 소프트웨어융합학과는 일반학생전형을 통해 정시모집이 진행됩니다.
+2. **평균 등급 요구**:
+   - 2024학년도 수능 최종등록자에서 소프트웨어공학부의 평균 영어 등급은 약 3.77이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+   - 이는 일반적으로 경쟁률이 높은 학과로 볼 때, 평균 이상의 성적을 보여줘야 하는 것으로 판단됩니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 다음과 같은 점수를 목표로 설정하는 것이 좋습니다:
+- **영어 등급**: 3.77 이상
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 430점 이상
+이러한 수치는 평균적인 수준이며, 경쟁률이 높아질수록 더 높은 점수가 필요할 수 있습니다. 따라서 개인의 성적과 목표를 고려하여 적절한 대비를 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 "학생부 교과성적"에 대한 언급이 누락되어 있습니다. 또한, "학생부종합전형"이라는 용어는 원본 텍스트에 명시되어 있지 않으며, 이는 다소 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, "학생부 교과성적"에 대한 언급이 없고, "학생부종합전형"이라는 용어가 사용되어 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 면접 준비와 서류 준비에 대한 구체적인 정보를 제공하여 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 "학생부 교과성적"에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽고 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비와 서류 준비에 대한 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항인 "학생부 교과성적"을 누락하고 있어 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 다차원적인 품질 점수는 중간에서 높은 수준으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 용어 사용이 원본과 다르기 때문에 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5785418469718185</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>학생부종합전형의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 소프트웨어융합학과는 공학 계열이므로, 학업역량과 전공적합성에 대한 내용을 중점적으로 보게 될 것입니다.
+1. **면접 준비**:
+   - **학업역량**: 과제 해결 능력, 프로젝트 참여 경험 등을 강조해야 합니다.
+   - **전공적합성**: 진로 탐색 활동과 관련된 경험을 이야기해보세요. 예를 들어, 특정 프로그램이나 대회에서의 성취 등.
+2. **서류 준비**:
+   - **고교 학교생활기록부**: 이는 필수 서류입니다.
+   - **검정고시출신자**: 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부를 제출해야 합니다.
+   - **외국고교 졸업(예정)자**: 공증받은 외국고교 졸업증명서 1부와 성적증명서 1부를 제출해야 합니다.
+**추천 서류 준비 내용**:
+- **학술 활동 및 프로젝트 참여 경험**: 이는 면접에서 자신의 학업역량을 보여주는 중요한 부분입니다.
+- **진로 탐색 활동**: 특정 프로그램이나 대회에서의 성취, 관련 활동 등을 강조해야 합니다.
+**준비 방법**:
+1. **면접 준비**:
+   - 지원 동기와 입학 후 학업 계획을 이야기해보세요.
+   - 과제 해결 능력과 프로젝트 참여 경험 등을 강조하세요.
+2. **서류 준비**:
+   - 고교 학교생활기록부 1부를 제출해야 합니다.
+   - 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부를 제출해야 합니다.
+이러한 내용을 바탕으로 면접과 서류 평가 점수를 모두 고려하여 최종 결정을 내리게 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적에 대한 정보를 제공하지만, 영어 성적에 대한 평균치가 잘못된 것으로 보입니다. 원본 텍스트에서는 영어 등급 평균이 3.80이라고 명시되어 있으나, 생성된 응답에서는 3.60으로 언급되어 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 영어 성적에 대한 정보가 일관되지 않습니다. 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 분석을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 성적에 대한 평균치가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부 사항에서의 부정확성으로 인해 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7301400298946628</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학과의 수능(일반학생전형) 최초합격자의 성적 분석을 통해, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 313.00이며, 영어 등급의 평균은 3.80입니다.
+당신이 제시한 성적인 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 4.08이고, 영어 등급이 3.60으로 보니, 다음과 같은 결론을 내릴 수 있습니다:
+1. **국어 + 수학 + 탐구(2개) 성적**: 제시하신 4.08은 평균치보다 약간 높습니다. 이는 좋은 점수로, 경쟁률이 낮아진 경우나 지원 인원이 적은 경우에는 충분히 합격 가능성이 있습니다.
+2. **영어 성적**: 제시하신 3.60은 평균치보다 약간 낮습니다. 이는 소프트웨어공학과의 영어 등급 평균(3.80)에 비해 약간 부족합니다.
+따라서, 다음과 같은 조건들이 만족된다면 합격 가능성은 높아집니다:
+- 지원 인원이 적거나 경쟁률이 낮아진 경우
+- 다른 전형에서 좋은 성적을 거둔 경우 (예: 실기/실적 등)
+- 입학사정관의 평가를 받는 경우, 개인적인 특성이나 경험 등을 고려받을 수 있습니다
+결론적으로, 제시하신 성적이 소프트웨어공학과 최초합격자로 합격할 가능성은 있으나, 경쟁률과 지원 인원 등 여러 요인에 따라 결정될 수 있습니다. 따라서 추가적인 정보와 전략이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 5등급이라는 정보는 출처 텍스트에서 확인할 수 없는 내용입니다. 따라서 일부 사실과 일치하지만, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 출처 텍스트와 일부 일치하지만, 정원외 모집과 관련된 정보는 출처에서 언급되지 않았습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 모집과 관련된 정보를 다루고 있어 관련성이 높지만, 출처 텍스트에서 제공된 정보와는 다소 차이가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 추가되면서 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제시된 5등급 정보는 출처 텍스트에서 확인할 수 없는 내용으로, 정확성이 떨어집니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 정보는 출처와 일치하지 않아 의미의 적절성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6470058764310938</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위별 지원 및 합격 현황을 보면, 소프트웨어융합학과는 조기취업형계약학과전형에서 정원외로 모집되고 있습니다. 이 전형의 경우, 평균 등급이 5등급으로 나타나고 있습니다.
+하지만 일반학생전형에서는 다음과 같은 정보가 주어지지 않았습니다:
+1. 일반학생전형에서 소프트웨어융합학과에 대한 지원 및 합격자 통계가 제공되지 않았습니다.
+2. 정시모집군 (다)로 분류되어 있는 것으로 보이지만, 해당 전형의 세부 정보는 제시되지 않았습니다.
+따라서, 정확한 평균 등급을 판단하기 위해서는:
+1. 2024학년도 소프트웨어융합학과 일반학생전형 모집단위별 지원 및 합격자 통계를 확인해야 합니다.
+2. 해당 전형의 세부 평가 기준, 전형요소 반영비율 등을 고려해야 합니다.
+현재 정보만으로는 정시모집군 (다)에서 5등급을 기준으로 소프트웨어융합학과에 지원하기 어렵다고 판단할 수 있습니다. 더 자세한 정보를 얻기 위해서는 대학 입학처나 공식 홈페이지를 참조하시거나, 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 수능 등급과 비교할 때, 4.28의 성적이 "좋은 점수"라는 주장은 다소 주관적이며, 원본 텍스트의 명확한 판단 기준을 따르지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 학생부종합 평가와 관련된 추가 정보를 제공하면서 원본 텍스트의 핵심 내용을 다소 벗어나고 있습니다. 따라서 일관성이 떨어진다고 평가할 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 입학 전형에 대한 정보를 제공하며, 질문에 대한 답변으로서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용인 성적 비교에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 전형 요소와 관련된 정보를 제공하지만, 원본 텍스트의 성적 기준과 비교할 때 정확성이 떨어질 수 있습니다. 특히, 성적에 대한 주관적인 평가가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 일관성 및 정확성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용입니다. 그러나 원본 텍스트의 핵심 정보와의 연결이 약간 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.5856136507257018</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 모집요강을 보면, 학생부종합 평가에서 다음과 같은 특징이 있습니다:
+1. **진로선택과목 성적 반영**:
+   - 전 모집단위(한의예과 제외): 진로선택과목 중 최대 2과목 이내를 반영 가능합니다.
+   - 한의예과: 모든 진로선택과목을 반영합니다.
+2. **진로선택과목 성적 반영 등급**:
+   - A: 1등급
+   - B: 3등급
+   - C: 5등급
+3. **학생부 교과성적 반영**:
+   - 전 모집단위(한의예과 제외): 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영합니다.
+   - 한의예과: 모든 교과를 반영합니다.
+4. **학생부교과 성적 평균 등급**:
+   - 4.28은 좋은 점수입니다. 신소재공학과는 일반적으로 높은 학생부 성적이 요구되므로, 이 정도의 성적은 충분히 경쟁력을 갖추고 있습니다.
+5. **전형요소 반영비율**:
+   - 서류(학생부) 60%
+   - 면접 40%
+이러한 요인들을 고려할 때, 4.28의 성적은 신소재공학과에 지원하는 데 충분히 경쟁력을 갖추고 있습니다. 그러나 최종 합격 여부는 서류 평가와 면접 등 다양한 요소를 종합적으로 판단하기 때문에, 다음과 같은 준비가 필요합니다:
+- **학생부 성적**을 잘 반영할 수 있는 서류 제출
+- **면접 준비**: 지원 동기, 전공 적합성 등을 명확하게 준비해야 합니다.
+따라서 4.28의 성적이 신소재공학과에 충분히 경쟁력을 갖추고 있으나, 최종 합격 여부는 면접 등 다른 요소와 함께 종합적으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요하다고 주장하고 있지만, 원문에서는 자기소개서가 필요 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 상반된 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있으며, 두 텍스트 간에 일관성이 전혀 없습니다. 원문에서 자기소개서가 필요 없다고 했는데, 생성된 응답에서는 필요하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 자기소개서 작성에 대한 정보를 제공하고 있지만, 원문에서 질문한 내용과는 관련이 없습니다. 원문은 자기소개서의 필요성에 대한 질문이었으나, 생성된 응답은 그와는 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 원문과의 관련성이 떨어지기 때문에 일관된 흐름이 부족합니다. 그러나 내부적으로는 논리적인 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 자기소개서가 필요하다고 주장하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락을 완전히 무시하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.5420514958314925</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 입학 전형에서 수능 일반학생전형으로 지원하는 경우, 자기소개서는 필수적으로 포함해야 합니다. 수능 위주로 전형이 진행되므로 자기소개서는 학업계획과 지원동기 등을 논의하면서 작성해야 합니다.
+자기소개서 작성 시 고려할 내용:
+1. 지원 동기와 학업 계획:
+   - 왜 해당 학과를 선택했는지
+   - 입학 후 어떤 목표를 세웠는지
+2. 학업 역량 및 전공 적합성:
+   - 과목별 성적 추이
+   - 관련 활동이나 경험
+3. 진로 탐색 능력:
+   - 지원 계열에 대한 관심과 이해
+   - 진로 탐색 활동을 통한 성장과정과 결과
+4. 문제 해결 능력:
+   - 학업 문제에 대한 원인 탐색과 해결 방안 마련 및 노력
+자기소개서는 서류평가와 면접평가에서 중요한 역할을 합니다. 따라서 작성 시 다음과 같은 내용들을 포함해야 합니다:
+- 지원 동기와 학업 계획
+- 학업 역량 및 전공 적합성
+- 진로 탐색 능력
+- 문제 해결 능력
+자기소개서는 서류평가에서 합격을 위한 필수 요소이므로 신중하게 작성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.5라는 점수가 높은 점수라는 점을 언급하고 있으며, 추가 모집에 합격할 확률을 판단하기 위한 여러 요소를 제시하고 있습니다. 그러나, 원문에서 제공된 구체적인 수치(예: 평균 등급 4.65, 최종 등록자 4.92 등)에 대한 언급이 부족하여 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 내용과 대체로 일치합니다. 추가 모집에 대한 정보와 합격 가능성을 고려해야 할 요소들을 잘 설명하고 있으나, 원문에서 강조된 각 학과의 평균 등급과 비교하는 중요성이 다소 약화된 느낌이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 연결하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 마지막 문장에서 중국어가 포함되어 있어 약간의 유창성 저하가 발생했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 마지막 문장에서 갑작스럽게 다른 언어가 등장하여 일관성이 약간 떨어졌습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있으나, 원문에서 제공된 구체적인 수치와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 모두 좋은 점수를 받았습니다. 그러나 일부 세부 사항이 부족하여 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 마지막 문장에서 다른 언어가 사용된 점은 의미적 적합성을 약간 저하시켰습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 마지막 문장에서의 언어 혼합으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.565768699750428</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형별 경쟁률: 각 단과대학 및 계열, 모집단위별로 경쟁률이 다르므로 이를 확인해야 합니다.
+2. 수능 성적 분포: 동의대학교 전체 지원자의 수능 점수 평균과 표준편차를 파악해 보세요. 
+3. 추가모집 규모: 해당 학과에서 추가모집하는 인원 수와 선발 기준을 확인하세요.
+4. 서류평가 결과: 일부 전형에서는 수능 성적 외에 서류평가도 중요하므로 이를 고려해야 합니다.
+5. 면접 등 추가 평가 요소: 필요시면 면접 등의 추가 평가 과정에서 좋은 인상을 줄 수 있도록 준비하세요.
+6. 학교별 특성: 동의대학교의 전반적인 입학 경쟁 상황과 모집 정원 등을 고려해야 합니다.
+4.5라는 점수는 높지만, 최종 결정은 여러 요소가综上所述，该学生的4.5分成绩在一定程度上有竞争力，但最终能否被录取还需综合考虑多个因素。</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하고 있으며, 경쟁률에 대한 정보도 제공하고 있습니다. 그러나, 수능 점수의 평균인 271.64에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률과 모집 인원에 대한 추가 정보를 제공하여 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 경쟁률에 대한 언급이 원본 텍스트에 포함되어 있지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나, 경쟁률과 관련된 정보가 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 원본 텍스트에 없는 수능 점수 평균에 대한 언급이 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 경쟁률에 대한 정보는 원본 텍스트와의 맥락에서 다소 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 정보가 다소 복잡하게 제시되어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6619959899886784</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 모집인원과 지원 인원을 보면, 경쟁률이 1.45입니다. 이는 상대적으로 낮은 경쟁률을 보여주며, 수능 점수만으로도 합격 가능성이 높아 보입니다.
+수능(일반학생전형) 최종등록자에서 단과대학은 공과대학이며, 2024학년도 모집단위은 신소재공학과, 분자나노공학과이며, 모집 인원은 56이며, 지원 인원은 81이며, 경쟁률은 1.45입니다.
+따라서, 이 데이터만으로는 정확한 등급을 예측하기 어렵지만, 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 271.64와 영어 등급의 평균인 5.06을 기준으로 지원하는 것이 좋을 것 같습니다.
+정확한 합격 가능 등급은 개인의 성적, 경쟁률 변화 등을 고려해야 하므로, 최종 결정을 위해서는 동의대학교 입학처 웹사이트나 전문가와 상담하는 것을 추천드립니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과는 다르게 2023년 평균 점수를 448.56점으로 제시하고 있습니다. 이는 사실과 다르며, 작년의 평균 점수에 대한 정보가 잘못 해석되었습니다. 또한, 447점이 작년보다 낮다고 언급했지만, 실제로는 작년 평균보다 높기 때문에 이 부분에서도 사실과의 불일치가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 작년 평균 점수와 현재 점수를 비교하는 과정에서 일관성이 부족합니다. 작년 평균 점수는 378.15점인데, 생성된 응답에서는 447점이 작년보다 낮다고 언급하고 있어 모순이 발생합니다. 이러한 점에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하고 있으며, 신소재공학과의 평균 점수와 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 일부 정보는 정확하지 않기 때문에 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 전체적인 논리적 흐름이 다소 약합니다. 특히, 447점이 작년보다 낮다는 주장은 앞서 언급된 사실과 모순되어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실에 대한 여러 오류를 포함하고 있습니다. 작년 평균 점수와 현재 점수의 비교에서 잘못된 정보를 제공하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두에서 문제가 있으며, 이러한 점들이 종합적으로 응답의 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.7456880771225485</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과의 최종 등록자의 표준 변환 점수 평균이 448.56점으로, 작년보다 약간 높게 나왔습니다. 하지만 정시 모집단위별로 경쟁률이나 충원 합격자 수가 달라지므로, 특정 단과대학의 표준 변환 점수가 작년에 비해 소폭 변동될 가능성은 있습니다.
+447점이 작년보다 약간 낮게 나온다면, 이는 다음과 같은 요인들로 인한 것입니다:
+1. 경쟁률 상승: 다른 학생들이 더 높은 점수를 받았을 수 있습니다.
+2. 모집 인원 감소: 충원 합격자 수가 작년보다 줄어들었을 수도 있습니다.
+3. 지원 인원 증가: 지원한 학생들의 평균 점수가 상승했을 가능성도 있습니다.
+그러나 1점 차이만으로는 큰 변화를 의미하지 않으므로, 447점이 작년보다 약간 낮게 나온다면 그 정도의 변동은 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 
+결론적으로, 작년과 비슷하거나 약간 높아질 가능성도 있지만, 정확한 결과는 최종 등록자들의 점수가 결정될 때까지 알 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 4.3 등급대의 성적이 낮다고 언급하고 있지만, 원본 텍스트에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 설명하고 있습니다. 이로 인해 사실관계에 대한 왜곡이 발생했습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.1~4.2 등급대의 성적이 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 4.3 등급대가 낮다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대학교 신소재공학부에 대한 정보와 관련된 여러 고려사항을 제시하고 있지만, 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 고려사항이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어져 다소 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 특히, 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서의 품질이 낮습니다. 사실관계와 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5442126618658544</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 수능 성적이 동의대학교 신소재공학과에서 예상되는 4.1~4.2 등급대로 변환된다면, 이는 상당히 낮은 등급입니다. 일반적으로 동의대학교 신소재공학과는 경쟁률이 높고, 합격 기준도 높습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 동의대학교 신소재공학과의 경쟁률은 매우 높습니다. 4.3 등급대는 상당히 낮은 수준으로, 이 정도 성적만으로는 충분한 확률로 합격을 보장하기 어렵습니다.
+2. **전형방법**: 일반학생전형의 경우, 수능 점수 외에도 다른 요소들도 고려됩니다. 따라서 단순히 등급만으로 판단하기보다는 전반적인 지원 자질과 경쟁력을 종합적으로 평가해야 합니다.
+3. **추천서 및 자기소개서**: 이 부분이 중요합니다. 좋은 추천서와 잘 작성된 자기소개서는 합격에 큰 도움이 될 수 있습니다.
+4. **실기/특기사항**: 일부 전형에서는 실기나 특기사항을 요구하기도 합니다. 이 부분에서 자신만의 강점을 보여줄 수 있다면 유리할 수 있습니다.
+5. **추가 지원**: 4.3 등급대라면, 다른 대학이나 학과에서도 고려해볼 만합니다. 경쟁률이 낮은 곳에서는 더 높은 확률로 합격할 수 있습니다.
+결론적으로, 현재의 성적만으로는 신소재공학과에 충분한 확률로 합격하기 어렵다고 볼 수 있습니다. 그러나 전반적인 지원 자질을 고려하면 다른 대학이나 학과에서도 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적 정보를 동국대학교 인공지능학과의 성적 정보로 잘못 기재하였으며, 수치 또한 원본과 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 대학의 정보를 혼동하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 인공지능학과의 성적에 대한 정보를 제공하고 있으나, 잘못된 대학 정보를 사용하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 문제가 있어 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있으나, 잘못된 정보로 인해 전체적인 맥락이 흐트러집니다. 따라서 일관성은 있지만, 내용의 신뢰성에 문제가 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답에 포함된 모든 수치와 정보가 원본과 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 사실성, 일관성, 정확성 모두 매우 낮아 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 응답의 의미는 이해할 수 있으나, 잘못된 맥락에서 제공되고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7542763179477696</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 인공지능학과의 수능(일반학생전형) 최종등록자의 성적 정보를 요약하면 다음과 같습니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균**: 308.58
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 10.96
+- **영어 등급의 평균**: 3.66
+- **영어 등급의 표준 편차**: 1.37
+- **수능 4개 영역 등급의 평균**: 4.53
+- **수능 4개 영역 등급의 표준 편차**: 0.36
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 426.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 7.46
+이 정보는 전체 지원자의 성적 분포를 나타내며, 평균적인 수준을 이해하는 데 도움이 됩니다. 하지만 개인의 성적이 이 평균치와 얼마나 가까운지 확인하려면 자신의 실적과 비교해야 합니다.
+또한 동국대학교 인공지능학과는 경쟁률이 높은 학과 중 하나로 알려져 있습니다 (8.90), 따라서 최대한 높은 성적이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 높은 점수라고 언급하고 있으며, 일반적으로 동의대학교의 정시모집에서 수능 성적이 중요한 요소라는 점은 사실입니다. 그러나 구체적인 학과의 충원 합격 가능성에 대한 정보는 제공하지 않고, 일반적인 조언을 하고 있어 사실성이 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 구체적인 학과의 성적 기준에 대한 언급이 부족하여 일관성이 떨어집니다. 원본 텍스트는 각 학과의 평균 성적을 제시하고 있으며, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 5.27의 성적에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트에서 제공된 구체적인 학과 정보와 비교할 때 다소 부족합니다. 그러나 여전히 관련성이 높다고 평가할 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27의 성적이 높은 점수라는 점은 정확하지만, 구체적인 학과의 충원 합격 가능성에 대한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 구체적인 정보의 부족으로 인해 전반적인 품질이 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절합니다. 그러나 구체적인 학과 정보가 부족하여 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장이 복잡할 수 있어 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6907491811650088</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상당히 높은 점수입니다. 각 학과별로 모집인원과 경쟁률이 다르므로, 정확한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **모집단위와 전형명**: 어떤 단과대학과 모집단위를 지원하는지 확인해야 합니다.
+2. **수능 반영 영역**: 국어, 수학, 영어 등급이 어떻게 반영되는지 확인해야 합니다.
+일반적으로 동의대학교의 정시모집에서는 수능 성적이 중요한 요소로 작용합니다. 5.27이라는 점수는 대부분의 학과에서 좋은 성적을 보여줄 것입니다. 그러나 경쟁률과 모집인원에 따라 결과가 달라질 수 있습니다.
+예를 들어, 상경대학의 경영학과나 회계학과 등에서는 5.27 이상의 점수가 충분히 경쟁력을 갖추고 있을 가능성이 높습니다. 그러나 다른 학과들(예: 공과대학의 기계공학과)에서는 더 높은 점수를 요구할 수 있습니다.
+따라서, 정확한 답변을 위해서는 위에서 언급한 정보가 필요합니다. 만약 구체적인 모집단위와 전형명이 주어진다면, 해당 정보를 바탕으로 좀 더 정확하게 판단할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 4.2라는 점수가 높은 수준이라는 점도 정확하게 언급하고 있습니다. 그러나, 소프트웨어공학부의 평균 등급과 관련된 구체적인 수치(영어 등급 평균 3.77, 수능 4개 영역 등급 평균 4.49)는 언급되지 않았습니다. 따라서, 일부 정보가 누락되어 있어 4점으로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부에 지원할 때 고려해야 할 요소들을 잘 설명하고 있으며, 원본 텍스트의 내용과 일관성을 유지하고 있습니다. 그러나, 경쟁률에 대한 언급이 추가되었으나 이는 원본 텍스트에서 직접적으로 언급되지 않았습니다. 전반적으로 일관성이 높지만, 약간의 추가 정보로 인해 4점으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어공학부에 지원할 때 고려해야 할 요소들을 잘 설명하고 있으며, 원본 텍스트의 주제와 직접적으로 관련이 있습니다. 따라서, 매우 높은 관련성을 가지고 있어 5점으로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길고 복잡하여 약간의 가독성 저하가 있을 수 있습니다. 따라서 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있어 4점으로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 정확하게 반영하고 있으며, 4.2라는 성적에 대한 해석도 적절합니다. 그러나 원본 텍스트의 구체적인 수치가 누락되어 있어 4점으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 높은 품질을 보여주고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 평가를 받았습니다. 그러나 일부 정보의 누락으로 인해 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 약간의 추가 정보가 포함되어 있어 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 이해하기 어려운 부분이 있을 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5552086445892308</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 하지만 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원과 지원자 수: 소프트웨어공학부의 모집인원이 많지 않으므로 경쟁률이 높을 가능성이 큽니다.
+2. 성적 반영 비율: 2024학년도에는 학생부종합(조기취업형계약학과전형)에서 서류 60% + 면접 40%로 구성되어 있습니다. 이 중 서류 평가에서는 교과성적이 중요한 요소입니다.
+3. 교과 성적 반영: 
+   - 전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 12과목
+   - 한의예과는 전과목 반영
+4. 학생부 종합 평가: 면접에서 교과성적을 바탕으로 질문이 이루어질 수 있습니다.
+5. 지원자들의 성적 분포:
+   - 모집인원 30명, 지원 인원 146명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71
+이러한 상황을 고려하면:
+- 4.2라는 성적은 매우 높습니다.
+- 경쟁률이 높아서 당락을 결정짓는 요인이 될 수 있습니다.
+- 교과성적이 좋다면 합격 가능성은 있지만, 여전히 높은 경쟁률을 고려해야 합니다.
+결론적으로 4.2라는 성적은 좋은 기반일 것입니다만, 실제 합격 가능성을 판단하기 위해서는 모집인원, 지원자 수, 그리고 다른 지원자의 성적 분포 등을 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 3.92라는 점수에 대한 합격 가능성을 언급하고 있습니다. 그러나, 응답에서 제시된 여러 요인들(모집인원, 경쟁률 등)은 구체적인 수치나 데이터 없이 일반적인 설명으로 이루어져 있어 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 3.92라는 점수에 대한 합격 가능성을 논의하고 있습니다. 그러나, 응답에서 제시된 추가적인 요인들은 원본 텍스트에서 언급되지 않았기 때문에 약간의 일관성 부족이 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 3.92라는 점수에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 요인들을 나열하며 논리적으로 연결되어 있지만, 각 요인 간의 연결이 다소 약할 수 있습니다. 전반적으로는 잘 구성되어 있으나, 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 3.92라는 점수에 대한 합격 가능성을 다루고 있으며, 관련된 정보는 정확하지만, 구체적인 수치나 데이터가 부족하여 완전한 정확성에는 다소 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었으나, 일부 정보의 구체성이 부족하여 전반적인 품질이 약간 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6444893534531035</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 표준점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 모집단위에 지원하는 것은 가능한데, 실제 합격 가능성은 여러 요인에 따라 달라질 수 있습니다.
+1. **모집인원 및 경쟁률**: 화학환경공학부는 각각 화학공학과, 환경공학과, 응용화학과로 분리되어 있으므로 모집인원이 다르게 설정될 수 있습니다. 또한, 이들 학과의 경쟁률은 다를 수 있으며, 3.92라는 점수만으로는 정확한 경쟁률을 판단하기 어렵습니다.
+2. **성적 산출방법**: 동의대학교의 성적 산출 방법에 따라 국어, 수학, 영어, 탐구 등급점수와 표준점수를 반영합니다. 3.92는 대체로 좋은 점수이지만, 각 학과별로 요구하는 성적이 다르므로 정확한 판단을 위해서는 해당 학과의 최소 성적 기준을 확인해야 합니다.
+3. **전형요소**: 화학환경공학부는 일반적으로 학업역량, 전공적합성 등을 평가하므로, 지원동기와 학업계획, 관련 활동 경험 등이 중요합니다. 서류평가와 면접에서도 좋은 성적을 받았다면 추가적인 경쟁력을 갖추게 될 수 있습니다.
+4. **추천서 및 추천인**: 일부 전형에서는 추천서나 추천인이 필요할 수 있으므로, 이 부분도 고려해야 합니다.
+5. **기타 요인**: 지원자의 개인특성, 학교생활기록부의 내용 등도 중요한 요소로 작용할 수 있습니다.
+따라서 3.92라는 점수만으로는 확실한 판단이 어렵습니다. 동의대학교의 공식 홈페이지나 입학처에 문의하여 해당 학과의 최신 모집요강을 확인하고, 필요하다면 전문가와 상담하는 것이 좋습니다. 또한, 다른 지원자들의 성적 분포를 참고하여 자신의 위치를 파악해보는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 4.25의 성적이 경쟁력이 있다는 점을 언급하고 있습니다. 그러나 원문에서 제공된 구체적인 평균 점수와 비교하는 내용이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 화학환경공학부의 지원 가능성을 설명하고 있습니다. 다만, 원문에서 제시된 평균 점수와의 직접적인 비교가 부족하여 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 질문에 대해 매우 관련성이 높고, 지원 가능성에 대한 다양한 요인을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있으나, 원문에서 제시된 구체적인 평균 점수와의 비교가 부족하여 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6078804264225626</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학과의 경우, 수능 일반학생전형을 통해 지원이 가능한데, 지원 가능 여부는 다음과 같은 요인들에 따라 결정됩니다:
+1. **모집단위**: 화학환경공학과는 공과대학 소속입니다.
+2. **수능 성적**: 4.25 등급은 수능 점수가 상당히 높습니다. 평균적으로 3.0 이상의 수능 점수를 요구하는 경우가 많으므로, 이 정도 점수는 충분히 경쟁력을 갖추고 있습니다.
+3. **모집군**: 화학환경공학과는 일반학생전형으로 지원 가능하며, 해당 전형은 가군 또는 나군에 속합니다. 수능 성적 반영방법은 각 25%씩 국어, 수학, 영어, 탐구 등급을 반영합니다.
+4. **고교유형별 지원자격**: 화학환경공학과는 일반고, 자율고, 특수목적고(예: 과학고, 국제고, 외국어고), 특성화고, 영재학교, 학력인정고, 방송통신고, 각종학교 등 대부분의 고교유형에서 지원이 가능합니다. 검정고시나 외국고는 지원 불가능합니다.
+5. **전형명**: 화학환경공학과는 수능 일반학생전형으로 지원할 수 있습니다.
+따라서, 4.25 등급의 수능 점수로 화학환경공학과를 지원하는 것은 가능하며 경쟁력을 갖추고 있습니다. 다만, 실제 합격 가능성은 모집인원, 지원자 수, 다른 지원자의 성적 등 다양한 요인에 따라 달라질 수 있으므로, 최종 결정을 내리기 전까지는 정확한 정보를 확인하는 것이 좋습니다.
+추가적으로, 동의대학교의 경우 특정 전형이나 단과대학별로 지원 자격이 조금씩 다를 수 있으므로, 공식 입학처 웹사이트나 학교 관계자에게 직접 문의하여 최신 및 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.2라는 점수가 좋은 성적이라는 점을 언급하고 있으며, 합격 여부는 여러 요소에 따라 달라진다고 설명하고 있습니다. 이는 원본 텍스트의 내용과 일치하지만, 구체적인 수치나 기준에 대한 언급이 부족하여 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보와 일관되며, 여러 요소를 고려해야 한다고 설명합니다. 그러나 원본 텍스트에서 제공된 평균 성적에 대한 구체적인 정보는 포함되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 영화학과의 합격 가능성에 대한 여러 요소를 설명하고 있습니다. 원본 텍스트의 주요 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 여러 요소를 나열하는 방식이 다소 산만하게 느껴질 수 있습니다. 전체적인 흐름은 좋지만, 약간의 일관성이 떨어져 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 여러 요소를 고려해야 한다고 설명하고 있지만, 구체적인 수치나 기준에 대한 언급이 부족하여 정확성 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 세부 사항이 부족하여 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 따라서 의미 적합성 점수는 5로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6067327483237286</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 정시 합격 여부는 여러 요소에 따라 달라집니다:
+1. 모집인원과 지원자 수: 영화학과의 모집인원과 지원자의 수에 따라 경쟁률이 결정됩니다.
+2. 전형방법: 나군 수능(일반학생전형)으로 지원하셨다면, 수능 점수만 반영되므로 성적이 중요합니다.
+3. 합격기준: 각 대학의 합격 기준 점수가 다르므로 이를 확인해야 합니다.
+4. 전형요소 비율: 실기/실적(일반학생전형)이라면 실기 성적도 고려됩니다.
+5. 동점자 처리 기준: 동점자가 발생할 경우 어떻게 처리되는지 중요합니다.
+6. 경쟁률: 현재의 경쟁률을 확인하여 자신의 위치를 파악해야 합니다.
+추천 사항:
+1. 대학 홈페이지에서 해당 학과의 정시 모집요강을 꼭 확인하세요.
+2. 최근 몇 년간의 합격자 성적을 참고해보세요.
+3. 동점자 처리 기준도 확인하시고, 필요하다면 입학처에 문의해 보세요.
+4. 현재 경쟁률이 높다면 추가 준비나 다른 전형을 고려해볼 수도 있습니다.
+정확한 답변은 학교별로 다르므로, 해당 대학 입학처와 직접 상담하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차를 나열하고 있지만, 일부 내용이 원본 텍스트와 다르게 표현되어 있습니다. 예를 들어, "나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법에서 제공된 면접 절차는"이라는 문구는 원본 텍스트에 포함되어 있지 않으며, 이는 불필요한 정보입니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 따르지만, 추가된 정보로 인해 일관성이 떨어집니다. 원본 텍스트의 흐름과는 다르게 나군 학생부종합 전형에 대한 언급이 있어 일관성이 부족합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 내용을 다루고 있습니다. 그러나 추가된 정보가 다소 관련성이 떨어지므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차를 나열하고 있지만, 추가된 정보로 인해 논리적 흐름이 약간 깨졌습니다. 원본 텍스트와의 연결이 매끄럽지 않으므로 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차를 정확하게 나열하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 추가된 정보로 인해 전반적인 품질이 저하되었습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 전달하고 있지만, 추가된 정보가 문맥에 맞지 않아 의미적 적절성이 떨어집니다. 따라서 의미적 적절성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어질 경우 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.53141581510187</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是关于面试流程的信息：
+나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 방법에서 제공된 면접 절차는如下是关于面试流程的信息：
+1. 在候考室等待 (①대기실 입실)
+2. 身份确认 (②신분 확인)
+3. 移动到考场前 (③고사장 앞 이동)
+4. 进入考场 (④고사장 입실)
+5. 发表关于申请动机及学业计划的内容 (⑤지원동기 및 학업계획 발표)
+6. 讨论与学业能力、专业适应性相关的一般问题并回答质询 (⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답)
+7. 回答其他问题（检查提交文件的真实性等）(⑦기타 질의응답 - 使用面试时填写的问题清单来验证提交的文件的真实性）
+8. 离场 (⑧퇴실)
+按照上述步骤，考生将依次完成整个面试流程。</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
